--- a/entregables/Binding Variability v1.000F.xlsx
+++ b/entregables/Binding Variability v1.000F.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="11400" windowHeight="5385" tabRatio="771"/>
+    <workbookView xWindow="480" yWindow="160" windowWidth="38500" windowHeight="22940" tabRatio="771"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;S Final" sheetId="38" r:id="rId1"/>
     <sheet name="SM&amp;O Initial" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="Division de Tareas Equipo" sheetId="39" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'P&amp;S Final'!$C$22:$U$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="117">
   <si>
     <t>On Site Support</t>
   </si>
@@ -185,9 +191,6 @@
     <t>Strategy</t>
   </si>
   <si>
-    <t>Third Party Mgmt</t>
-  </si>
-  <si>
     <t>Modelo Conceptual</t>
   </si>
   <si>
@@ -218,9 +221,6 @@
     <t>Achivements</t>
   </si>
   <si>
-    <t>Abstract Factory</t>
-  </si>
-  <si>
     <t>Path Social</t>
   </si>
   <si>
@@ -249,13 +249,139 @@
   </si>
   <si>
     <t>SPLOT</t>
+  </si>
+  <si>
+    <t>GZ</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>En Progreso</t>
+  </si>
+  <si>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t>No Iniciada</t>
+  </si>
+  <si>
+    <t>Alquiler de Bicicletas</t>
+  </si>
+  <si>
+    <t>Set Up</t>
+  </si>
+  <si>
+    <t>Seguimiento de logros</t>
+  </si>
+  <si>
+    <t>Achiv Social (Publicar Redes)</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Presentacion</t>
+  </si>
+  <si>
+    <t>Share Social</t>
+  </si>
+  <si>
+    <t>ID Funcion</t>
+  </si>
+  <si>
+    <t>Tipo Variabilidad</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Arbol de Derivacion</t>
+  </si>
+  <si>
+    <t>Esamble y empaquetamiento automatico</t>
+  </si>
+  <si>
+    <t>Lectura string configuracion POM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatizacion Proceso </t>
+  </si>
+  <si>
+    <t>Factory, Third Party Mgmt</t>
+  </si>
+  <si>
+    <t>Aspectos</t>
+  </si>
+  <si>
+    <t>Tener my Rutes en historial de rutas</t>
+  </si>
+  <si>
+    <t>Compartir Viajes planeados, Realizados</t>
+  </si>
+  <si>
+    <t>Persistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar Funcionalidad Grupal </t>
+  </si>
+  <si>
+    <t>Func Obligatoria</t>
+  </si>
+  <si>
+    <t>Lo que se arreglo en clase</t>
+  </si>
+  <si>
+    <t>Imprementacion Variabilidad</t>
+  </si>
+  <si>
+    <t>Implementacion derivador</t>
+  </si>
+  <si>
+    <t>Ajustes funcionalidad</t>
+  </si>
+  <si>
+    <t>Social Media (Login, Share)</t>
+  </si>
+  <si>
+    <t>Achivements (Set Up - Follow  UP)</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Path Social, Path Deportivo</t>
+  </si>
+  <si>
+    <t>Factory (Creacion del Path)</t>
+  </si>
+  <si>
+    <t>Flow-Up de logros</t>
+  </si>
+  <si>
+    <t>Bike Configuration (Montaña, Carretera, Mixta)</t>
+  </si>
+  <si>
+    <t>Strategy/Servicios SOA? (USANDO SPLOT, FEATURE IDE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -407,8 +533,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +606,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -490,91 +652,91 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,7 +745,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,107 +753,107 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -700,48 +862,48 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -749,66 +911,66 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,139 +978,139 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -957,11 +1119,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -970,7 +1132,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -978,10 +1140,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -989,7 +1151,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -997,12 +1159,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,20 +1173,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,20 +1194,20 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1053,59 +1215,59 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,139 +1275,177 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1640,46 +1840,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1727,9 +1906,159 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1748,59 +2077,212 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1811,297 +2293,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="43">
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -2166,7 +2427,7 @@
           <a:tailEnd/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2219,7 +2480,7 @@
           <a:tailEnd/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2960,59 +3221,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:V42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="102" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="102" customWidth="1"/>
     <col min="2" max="2" width="1" style="102" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="102" customWidth="1"/>
-    <col min="4" max="4" width="1.42578125" style="102" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="102" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="102" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="102" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="102" customWidth="1"/>
+    <col min="4" max="4" width="1.5" style="102" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="102" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="102" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="102" customWidth="1"/>
     <col min="8" max="8" width="8" style="102" customWidth="1"/>
-    <col min="9" max="21" width="5.85546875" style="102" customWidth="1"/>
-    <col min="22" max="22" width="1.140625" style="102" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" style="102" customWidth="1"/>
-    <col min="24" max="31" width="6.28515625" style="102" customWidth="1"/>
-    <col min="32" max="40" width="5.42578125" style="102" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="102"/>
+    <col min="9" max="21" width="5.83203125" style="102" customWidth="1"/>
+    <col min="22" max="22" width="1.1640625" style="102" customWidth="1"/>
+    <col min="23" max="23" width="3.5" style="102" customWidth="1"/>
+    <col min="24" max="31" width="6.33203125" style="102" customWidth="1"/>
+    <col min="32" max="40" width="5.5" style="102" customWidth="1"/>
+    <col min="41" max="16384" width="9.1640625" style="102"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="153" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="155"/>
-    </row>
-    <row r="3" spans="3:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:21" ht="27.75" customHeight="1">
+      <c r="C2" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="148"/>
+    </row>
+    <row r="3" spans="3:21" ht="10.5" customHeight="1"/>
+    <row r="4" spans="3:21" outlineLevel="1">
       <c r="C4" s="103"/>
       <c r="D4" s="104"/>
       <c r="E4" s="104"/>
@@ -3033,7 +3294,7 @@
       <c r="T4" s="104"/>
       <c r="U4" s="105"/>
     </row>
-    <row r="5" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C5" s="106"/>
       <c r="D5" s="107"/>
       <c r="E5" s="107"/>
@@ -3041,10 +3302,10 @@
       <c r="G5" s="107"/>
       <c r="H5" s="107"/>
       <c r="I5" s="107"/>
-      <c r="J5" s="156" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="157"/>
+      <c r="J5" s="149" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="150"/>
       <c r="L5" s="107"/>
       <c r="M5" s="107"/>
       <c r="N5" s="107"/>
@@ -3056,7 +3317,7 @@
       <c r="T5" s="107"/>
       <c r="U5" s="108"/>
     </row>
-    <row r="6" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:21" outlineLevel="1">
       <c r="C6" s="106"/>
       <c r="D6" s="107"/>
       <c r="E6" s="107"/>
@@ -3064,8 +3325,8 @@
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="159"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="152"/>
       <c r="L6" s="107"/>
       <c r="M6" s="107"/>
       <c r="N6" s="107"/>
@@ -3077,7 +3338,7 @@
       <c r="T6" s="107"/>
       <c r="U6" s="108"/>
     </row>
-    <row r="7" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:21" outlineLevel="1">
       <c r="C7" s="106"/>
       <c r="D7" s="107"/>
       <c r="E7" s="107"/>
@@ -3098,7 +3359,7 @@
       <c r="T7" s="107"/>
       <c r="U7" s="108"/>
     </row>
-    <row r="8" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:21" outlineLevel="1">
       <c r="C8" s="106"/>
       <c r="D8" s="107"/>
       <c r="E8" s="107"/>
@@ -3119,11 +3380,11 @@
       <c r="T8" s="107"/>
       <c r="U8" s="108"/>
     </row>
-    <row r="9" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
-      <c r="E9" s="160" t="s">
-        <v>57</v>
+      <c r="E9" s="153" t="s">
+        <v>56</v>
       </c>
       <c r="F9" s="107"/>
       <c r="G9" s="107"/>
@@ -3142,44 +3403,44 @@
       <c r="T9" s="107"/>
       <c r="U9" s="108"/>
     </row>
-    <row r="10" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C10" s="106"/>
       <c r="D10" s="107"/>
-      <c r="E10" s="160"/>
+      <c r="E10" s="153"/>
       <c r="F10" s="107"/>
-      <c r="G10" s="269" t="s">
+      <c r="G10" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="155"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="276"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="270" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="271"/>
+      <c r="N10" s="160"/>
       <c r="O10" s="107"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
       <c r="S10" s="107"/>
       <c r="T10" s="107"/>
       <c r="U10" s="108"/>
     </row>
-    <row r="11" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C11" s="106"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="160"/>
+      <c r="E11" s="153"/>
       <c r="F11" s="107"/>
-      <c r="G11" s="277"/>
-      <c r="H11" s="278"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
       <c r="I11" s="107"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
       <c r="L11" s="107"/>
-      <c r="M11" s="272"/>
-      <c r="N11" s="273"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="162"/>
       <c r="O11" s="107"/>
       <c r="P11" s="107"/>
       <c r="Q11" s="107"/>
@@ -3188,7 +3449,7 @@
       <c r="T11" s="107"/>
       <c r="U11" s="108"/>
     </row>
-    <row r="12" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:21" outlineLevel="1">
       <c r="C12" s="106"/>
       <c r="D12" s="107"/>
       <c r="E12" s="112"/>
@@ -3209,7 +3470,7 @@
       <c r="T12" s="107"/>
       <c r="U12" s="108"/>
     </row>
-    <row r="13" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:21" outlineLevel="1">
       <c r="C13" s="106"/>
       <c r="D13" s="107"/>
       <c r="E13" s="112"/>
@@ -3230,52 +3491,52 @@
       <c r="T13" s="107"/>
       <c r="U13" s="108"/>
     </row>
-    <row r="14" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C14" s="106"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="146"/>
+      <c r="E14" s="139"/>
       <c r="F14" s="107"/>
       <c r="G14" s="107"/>
       <c r="H14" s="107"/>
       <c r="I14" s="107"/>
       <c r="J14" s="130"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="141"/>
       <c r="M14" s="107"/>
       <c r="N14" s="107"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="148"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="141"/>
       <c r="Q14" s="107"/>
       <c r="R14" s="107"/>
       <c r="S14" s="107"/>
       <c r="T14" s="107"/>
       <c r="U14" s="108"/>
     </row>
-    <row r="15" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C15" s="106"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="146"/>
+      <c r="E15" s="139"/>
       <c r="F15" s="107"/>
       <c r="G15" s="107"/>
       <c r="H15" s="107"/>
       <c r="I15" s="107"/>
       <c r="J15" s="107"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="150"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
       <c r="M15" s="107"/>
       <c r="N15" s="107"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="150"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="143"/>
       <c r="Q15" s="107"/>
       <c r="R15" s="107"/>
       <c r="S15" s="107"/>
       <c r="T15" s="107"/>
       <c r="U15" s="108"/>
     </row>
-    <row r="16" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C16" s="106"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="146"/>
+      <c r="E16" s="139"/>
       <c r="F16" s="107"/>
       <c r="G16" s="107"/>
       <c r="H16" s="107"/>
@@ -3286,25 +3547,25 @@
       <c r="M16" s="107"/>
       <c r="N16" s="107"/>
       <c r="O16" s="107"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="151"/>
-      <c r="R16" s="151"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
       <c r="S16" s="107"/>
       <c r="T16" s="107"/>
       <c r="U16" s="108"/>
     </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C17" s="106"/>
       <c r="D17" s="107"/>
-      <c r="E17" s="146"/>
+      <c r="E17" s="139"/>
       <c r="F17" s="107"/>
       <c r="G17" s="107"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
       <c r="J17" s="107"/>
       <c r="K17" s="107"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
       <c r="N17" s="107"/>
       <c r="O17" s="107"/>
       <c r="P17" s="107"/>
@@ -3314,18 +3575,18 @@
       <c r="T17" s="107"/>
       <c r="U17" s="108"/>
     </row>
-    <row r="18" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" outlineLevel="1">
       <c r="C18" s="106"/>
       <c r="D18" s="107"/>
       <c r="E18" s="107"/>
       <c r="F18" s="107"/>
       <c r="G18" s="107"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
       <c r="J18" s="107"/>
       <c r="K18" s="107"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
       <c r="N18" s="107"/>
       <c r="O18" s="107"/>
       <c r="P18" s="107"/>
@@ -3335,7 +3596,7 @@
       <c r="T18" s="107"/>
       <c r="U18" s="108"/>
     </row>
-    <row r="19" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" outlineLevel="1">
       <c r="C19" s="106"/>
       <c r="D19" s="107"/>
       <c r="E19" s="107"/>
@@ -3356,7 +3617,7 @@
       <c r="T19" s="107"/>
       <c r="U19" s="108"/>
     </row>
-    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" outlineLevel="1">
       <c r="C20" s="109"/>
       <c r="D20" s="110"/>
       <c r="E20" s="110"/>
@@ -3377,212 +3638,206 @@
       <c r="T20" s="110"/>
       <c r="U20" s="114"/>
     </row>
-    <row r="21" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C22" s="137" t="str">
+    <row r="21" spans="1:22" ht="18" customHeight="1" thickBot="1"/>
+    <row r="22" spans="1:22">
+      <c r="C22" s="163" t="str">
         <f>J5</f>
         <v>Variabilidad</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="139"/>
-    </row>
-    <row r="23" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="142"/>
-    </row>
-    <row r="24" spans="1:22" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="165"/>
+    </row>
+    <row r="23" spans="1:22" ht="15" thickBot="1">
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="167"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="167"/>
+      <c r="U23" s="168"/>
+    </row>
+    <row r="24" spans="1:22" ht="6.75" customHeight="1" thickBot="1">
       <c r="C24" s="115"/>
       <c r="E24" s="116"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="143"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="169"/>
+      <c r="Q24" s="169"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="169"/>
+      <c r="T24" s="169"/>
+      <c r="U24" s="169"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A25" s="117"/>
-      <c r="C25" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="274" t="s">
+      <c r="C25" s="170" t="s">
         <v>58</v>
       </c>
+      <c r="E25" s="172" t="s">
+        <v>57</v>
+      </c>
       <c r="V25" s="118"/>
     </row>
-    <row r="26" spans="1:22" ht="13.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="13.5" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A26" s="119"/>
-      <c r="C26" s="145"/>
-      <c r="E26" s="275"/>
-    </row>
-    <row r="27" spans="1:22" ht="6.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="171"/>
+      <c r="E26" s="173"/>
+    </row>
+    <row r="27" spans="1:22" ht="6.75" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A27" s="119"/>
       <c r="C27" s="115"/>
       <c r="E27" s="120"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A28" s="119"/>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="175" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="279" t="s">
+      <c r="F28" s="123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A29" s="119"/>
+      <c r="C29" s="176"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="132" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A30" s="119"/>
+      <c r="C30" s="174" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="119"/>
-      <c r="C29" s="134"/>
-      <c r="E29" s="280"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119"/>
-      <c r="C30" s="132" t="s">
+      <c r="E30" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="281" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A31" s="119"/>
-      <c r="C31" s="132"/>
-      <c r="E31" s="282"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="174"/>
+      <c r="E31" s="136"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A32" s="119"/>
-      <c r="C32" s="136" t="s">
-        <v>65</v>
+      <c r="C32" s="178" t="s">
+        <v>110</v>
       </c>
       <c r="E32" s="123" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F32" s="123" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A33" s="119"/>
+      <c r="C33" s="178"/>
+      <c r="E33" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="132" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A34" s="119"/>
+      <c r="C34" s="177" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="119"/>
-      <c r="C33" s="136"/>
-      <c r="E33" s="122" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="283" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="119"/>
-      <c r="C34" s="135" t="s">
-        <v>69</v>
-      </c>
       <c r="D34" s="124"/>
-      <c r="E34" s="284" t="s">
+      <c r="E34" s="137" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A35" s="119"/>
-      <c r="C35" s="135"/>
+      <c r="C35" s="177"/>
       <c r="D35" s="124"/>
-      <c r="E35" s="285"/>
-    </row>
-    <row r="36" spans="1:6" ht="6.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="138"/>
+    </row>
+    <row r="36" spans="1:6" ht="6.75" customHeight="1" outlineLevel="1">
       <c r="A36" s="119"/>
       <c r="C36" s="125"/>
       <c r="D36" s="124"/>
       <c r="E36" s="126"/>
     </row>
-    <row r="37" spans="1:6" ht="6.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="6.75" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A37" s="128"/>
       <c r="D37" s="127"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="34" customHeight="1" outlineLevel="1">
       <c r="A38" s="128"/>
-      <c r="C38" s="133" t="s">
-        <v>70</v>
+      <c r="C38" s="175" t="s">
+        <v>68</v>
       </c>
       <c r="E38" s="121" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F38" s="121" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A39" s="128"/>
-      <c r="C39" s="134"/>
-      <c r="E39" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="129" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="176"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A40" s="128"/>
       <c r="C40" s="131"/>
-      <c r="E40" s="283" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="283" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+    </row>
+    <row r="41" spans="1:6" ht="6" customHeight="1" outlineLevel="1">
       <c r="A41" s="128"/>
       <c r="D41" s="127"/>
     </row>
-    <row r="42" spans="1:6" ht="6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:6" ht="6" customHeight="1" outlineLevel="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="O14:P15"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="H17:I18"/>
@@ -3594,6 +3849,11 @@
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="M10:N11"/>
     <mergeCell ref="P10:R10"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="K14:L15"/>
     <mergeCell ref="C22:U23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="J24:M24"/>
@@ -3605,22 +3865,26 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
-  <pageSetup scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;F&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH56"/>
@@ -3629,89 +3893,89 @@
       <selection activeCell="Y61" sqref="Y61:AA62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="11" width="3.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="1.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.28515625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="6.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="1.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="52" width="5.42578125" style="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="11" width="3.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="1.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15" max="30" width="6.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="1.1640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="52" width="5.5" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B2" s="162" t="s">
+    <row r="1" spans="2:34" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:34">
+      <c r="B2" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="164"/>
-    </row>
-    <row r="3" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="165"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="167"/>
-    </row>
-    <row r="4" spans="2:34" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+    </row>
+    <row r="3" spans="2:34" ht="15" thickBot="1">
+      <c r="B3" s="208"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="210"/>
+    </row>
+    <row r="4" spans="2:34" ht="6.75" customHeight="1" thickBot="1">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -3723,94 +3987,94 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="M4" s="16"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-    </row>
-    <row r="5" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="256" t="s">
+      <c r="O4" s="264"/>
+      <c r="P4" s="264"/>
+      <c r="Q4" s="264"/>
+      <c r="R4" s="264"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="264"/>
+      <c r="U4" s="264"/>
+      <c r="V4" s="264"/>
+      <c r="W4" s="264"/>
+      <c r="X4" s="264"/>
+      <c r="Y4" s="264"/>
+      <c r="Z4" s="264"/>
+      <c r="AA4" s="264"/>
+      <c r="AB4" s="264"/>
+      <c r="AC4" s="264"/>
+      <c r="AD4" s="264"/>
+    </row>
+    <row r="5" spans="2:34" ht="15">
+      <c r="B5" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="197" t="s">
+      <c r="F5" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="197" t="s">
+      <c r="G5" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="197" t="s">
+      <c r="H5" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="197" t="s">
+      <c r="I5" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="197" t="s">
+      <c r="J5" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="199" t="s">
+      <c r="K5" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="258" t="s">
+      <c r="M5" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="217" t="s">
+      <c r="O5" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="218"/>
-      <c r="R5" s="218"/>
-      <c r="S5" s="218"/>
-      <c r="T5" s="218"/>
-      <c r="U5" s="218"/>
-      <c r="V5" s="219"/>
-      <c r="W5" s="217" t="s">
+      <c r="P5" s="212"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="212"/>
+      <c r="S5" s="212"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="212"/>
+      <c r="V5" s="213"/>
+      <c r="W5" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="218"/>
-      <c r="Y5" s="218"/>
-      <c r="Z5" s="218"/>
-      <c r="AA5" s="218"/>
-      <c r="AB5" s="218"/>
-      <c r="AC5" s="218"/>
-      <c r="AD5" s="219"/>
+      <c r="X5" s="212"/>
+      <c r="Y5" s="212"/>
+      <c r="Z5" s="212"/>
+      <c r="AA5" s="212"/>
+      <c r="AB5" s="212"/>
+      <c r="AC5" s="212"/>
+      <c r="AD5" s="213"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="257"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="200"/>
-      <c r="M6" s="259"/>
+    <row r="6" spans="2:34" ht="15" thickBot="1">
+      <c r="B6" s="219"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="266"/>
+      <c r="M6" s="221"/>
       <c r="O6" s="62" t="s">
         <v>30</v>
       </c>
@@ -3860,7 +4124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:34" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" ht="6.75" customHeight="1" thickBot="1">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -3872,41 +4136,41 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="M7" s="17"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177"/>
-    </row>
-    <row r="8" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="178" t="s">
+      <c r="O7" s="251"/>
+      <c r="P7" s="251"/>
+      <c r="Q7" s="251"/>
+      <c r="R7" s="251"/>
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="251"/>
+      <c r="W7" s="251"/>
+      <c r="X7" s="251"/>
+      <c r="Y7" s="251"/>
+      <c r="Z7" s="251"/>
+      <c r="AA7" s="251"/>
+      <c r="AB7" s="251"/>
+      <c r="AC7" s="251"/>
+      <c r="AD7" s="251"/>
+    </row>
+    <row r="8" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B8" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="210">
-        <v>3</v>
-      </c>
-      <c r="D8" s="210" t="str">
+      <c r="C8" s="195">
+        <v>3</v>
+      </c>
+      <c r="D8" s="195" t="str">
         <f>IF(SUM(E8:K9)=0,"",SUM(E8:K9))</f>
         <v/>
       </c>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="190"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="267"/>
       <c r="M8" s="11" t="s">
         <v>43</v>
       </c>
@@ -3937,17 +4201,17 @@
       </c>
       <c r="AD8" s="35"/>
     </row>
-    <row r="9" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="179"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="189"/>
+    <row r="9" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B9" s="228"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="231"/>
       <c r="M9" s="12" t="s">
         <v>44</v>
       </c>
@@ -3970,24 +4234,24 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="30"/>
     </row>
-    <row r="10" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="176" t="s">
+    <row r="10" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B10" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="201">
+      <c r="C10" s="216">
         <v>1</v>
       </c>
-      <c r="D10" s="201" t="str">
+      <c r="D10" s="216" t="str">
         <f>IF(SUM(E10:K11)=0,"",SUM(E10:K11))</f>
         <v/>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="185"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="230"/>
       <c r="M10" s="13" t="s">
         <v>5</v>
       </c>
@@ -4022,17 +4286,17 @@
       </c>
       <c r="AD10" s="31"/>
     </row>
-    <row r="11" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="176"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="185"/>
+    <row r="11" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B11" s="214"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="230"/>
       <c r="M11" s="13" t="s">
         <v>6</v>
       </c>
@@ -4055,30 +4319,30 @@
       <c r="AC11" s="27"/>
       <c r="AD11" s="31"/>
     </row>
-    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="179" t="s">
+    <row r="12" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B12" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="203">
+      <c r="C12" s="274">
         <v>2</v>
       </c>
-      <c r="D12" s="214">
+      <c r="D12" s="268">
         <f>SUM(E12:K12)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="192">
+      <c r="E12" s="277">
         <v>1</v>
       </c>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192">
+      <c r="F12" s="277"/>
+      <c r="G12" s="277">
         <v>1</v>
       </c>
-      <c r="H12" s="216"/>
-      <c r="I12" s="192">
+      <c r="H12" s="272"/>
+      <c r="I12" s="277">
         <v>1</v>
       </c>
-      <c r="J12" s="192"/>
-      <c r="K12" s="187"/>
+      <c r="J12" s="277"/>
+      <c r="K12" s="281"/>
       <c r="M12" s="12" t="s">
         <v>40</v>
       </c>
@@ -4113,20 +4377,20 @@
       </c>
       <c r="AD12" s="30"/>
     </row>
-    <row r="13" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="179"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="214">
+    <row r="13" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B13" s="228"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="268">
         <f>SUM(E13:K14)</f>
         <v>4</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="187"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="272"/>
+      <c r="I13" s="277"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="281"/>
       <c r="M13" s="12" t="s">
         <v>10</v>
       </c>
@@ -4161,30 +4425,30 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="30"/>
     </row>
-    <row r="14" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="176" t="s">
+    <row r="14" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B14" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="201">
+      <c r="C14" s="216">
         <v>2</v>
       </c>
-      <c r="D14" s="202">
+      <c r="D14" s="273">
         <f>SUM(E14:K15)</f>
         <v>4</v>
       </c>
-      <c r="E14" s="206"/>
-      <c r="F14" s="191">
+      <c r="E14" s="279"/>
+      <c r="F14" s="271">
         <v>1</v>
       </c>
-      <c r="G14" s="191"/>
-      <c r="H14" s="215">
+      <c r="G14" s="271"/>
+      <c r="H14" s="270">
         <v>1</v>
       </c>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191">
+      <c r="I14" s="271"/>
+      <c r="J14" s="271">
         <v>1</v>
       </c>
-      <c r="K14" s="186">
+      <c r="K14" s="280">
         <v>1</v>
       </c>
       <c r="M14" s="13" t="s">
@@ -4221,17 +4485,17 @@
       </c>
       <c r="AD14" s="31"/>
     </row>
-    <row r="15" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="176"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="186"/>
+    <row r="15" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B15" s="214"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="271"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="270"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="271"/>
+      <c r="K15" s="280"/>
       <c r="M15" s="13" t="s">
         <v>11</v>
       </c>
@@ -4268,24 +4532,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="179" t="s">
+    <row r="16" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B16" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="211">
+      <c r="C16" s="227">
         <v>2</v>
       </c>
-      <c r="D16" s="211">
+      <c r="D16" s="227">
         <f>SUM(E16:K17)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="189"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="231"/>
       <c r="M16" s="12" t="s">
         <v>0</v>
       </c>
@@ -4322,17 +4586,17 @@
       </c>
       <c r="AD16" s="30"/>
     </row>
-    <row r="17" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="179"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="189"/>
+    <row r="17" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B17" s="228"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="231"/>
       <c r="M17" s="12" t="s">
         <v>41</v>
       </c>
@@ -4359,20 +4623,20 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="30"/>
     </row>
-    <row r="18" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="179"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="211">
+    <row r="18" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B18" s="228"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227">
         <f>SUM(E18:K20)</f>
         <v>6</v>
       </c>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="189"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="231"/>
       <c r="M18" s="12" t="s">
         <v>51</v>
       </c>
@@ -4405,34 +4669,34 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="30"/>
     </row>
-    <row r="19" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="176" t="s">
+    <row r="19" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B19" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="201">
+      <c r="C19" s="216">
         <v>7</v>
       </c>
-      <c r="D19" s="201">
+      <c r="D19" s="216">
         <f>SUM(E19:K20)</f>
         <v>6</v>
       </c>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174">
+      <c r="E19" s="229"/>
+      <c r="F19" s="229">
         <v>1</v>
       </c>
-      <c r="G19" s="174">
+      <c r="G19" s="229">
         <v>1</v>
       </c>
-      <c r="H19" s="174">
+      <c r="H19" s="229">
         <v>1</v>
       </c>
-      <c r="I19" s="174">
+      <c r="I19" s="229">
         <v>1</v>
       </c>
-      <c r="J19" s="169">
+      <c r="J19" s="283">
         <v>1</v>
       </c>
-      <c r="K19" s="185">
+      <c r="K19" s="230">
         <v>1</v>
       </c>
       <c r="L19" s="6"/>
@@ -4469,17 +4733,17 @@
       </c>
       <c r="AD19" s="61"/>
     </row>
-    <row r="20" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="182"/>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="188"/>
+    <row r="20" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B20" s="215"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="269"/>
+      <c r="F20" s="269"/>
+      <c r="G20" s="269"/>
+      <c r="H20" s="269"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="282"/>
       <c r="L20" s="22"/>
       <c r="M20" s="14" t="s">
         <v>14</v>
@@ -4518,7 +4782,7 @@
       </c>
       <c r="AD20" s="100"/>
     </row>
-    <row r="21" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" ht="6.75" customHeight="1" thickBot="1">
       <c r="L21" s="6"/>
       <c r="N21" s="6"/>
       <c r="W21" s="32"/>
@@ -4530,83 +4794,83 @@
       <c r="AC21" s="32"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="2:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="256" t="s">
+    <row r="22" spans="2:30" ht="15">
+      <c r="B22" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="207" t="s">
+      <c r="C22" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="207" t="s">
+      <c r="D22" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="197" t="str">
+      <c r="E22" s="225" t="str">
         <f t="shared" ref="E22:K22" si="0">E5</f>
         <v>CO</v>
       </c>
-      <c r="F22" s="197" t="str">
+      <c r="F22" s="225" t="str">
         <f t="shared" si="0"/>
         <v>PE</v>
       </c>
-      <c r="G22" s="197" t="str">
+      <c r="G22" s="225" t="str">
         <f t="shared" si="0"/>
         <v>EC</v>
       </c>
-      <c r="H22" s="197" t="str">
+      <c r="H22" s="225" t="str">
         <f t="shared" si="0"/>
         <v>HN</v>
       </c>
-      <c r="I22" s="197" t="str">
+      <c r="I22" s="225" t="str">
         <f t="shared" si="0"/>
         <v>SV</v>
       </c>
-      <c r="J22" s="197" t="str">
+      <c r="J22" s="225" t="str">
         <f t="shared" si="0"/>
         <v>PA</v>
       </c>
-      <c r="K22" s="199" t="str">
+      <c r="K22" s="265" t="str">
         <f t="shared" si="0"/>
         <v>AR</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="258" t="s">
+      <c r="M22" s="220" t="s">
         <v>46</v>
       </c>
       <c r="N22" s="6"/>
-      <c r="O22" s="217" t="s">
+      <c r="O22" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="219"/>
-      <c r="W22" s="217" t="s">
+      <c r="P22" s="212"/>
+      <c r="Q22" s="212"/>
+      <c r="R22" s="212"/>
+      <c r="S22" s="212"/>
+      <c r="T22" s="212"/>
+      <c r="U22" s="212"/>
+      <c r="V22" s="213"/>
+      <c r="W22" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="X22" s="218"/>
-      <c r="Y22" s="218"/>
-      <c r="Z22" s="218"/>
-      <c r="AA22" s="218"/>
-      <c r="AB22" s="218"/>
-      <c r="AC22" s="218"/>
-      <c r="AD22" s="219"/>
-    </row>
-    <row r="23" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="257"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="200"/>
+      <c r="X22" s="212"/>
+      <c r="Y22" s="212"/>
+      <c r="Z22" s="212"/>
+      <c r="AA22" s="212"/>
+      <c r="AB22" s="212"/>
+      <c r="AC22" s="212"/>
+      <c r="AD22" s="213"/>
+    </row>
+    <row r="23" spans="2:30" ht="15" thickBot="1">
+      <c r="B23" s="219"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="266"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="259"/>
+      <c r="M23" s="221"/>
       <c r="N23" s="6"/>
       <c r="O23" s="62" t="s">
         <v>30</v>
@@ -4657,7 +4921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" ht="6.75" customHeight="1" thickBot="1">
       <c r="L24" s="6"/>
       <c r="N24" s="6"/>
       <c r="W24" s="32"/>
@@ -4669,24 +4933,24 @@
       <c r="AC24" s="32"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="178" t="s">
+    <row r="25" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B25" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="210">
+      <c r="C25" s="195">
         <v>1</v>
       </c>
-      <c r="D25" s="210">
+      <c r="D25" s="195">
         <f>SUM(E25:K26)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="190"/>
+      <c r="E25" s="222"/>
+      <c r="F25" s="222"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="222"/>
+      <c r="J25" s="222"/>
+      <c r="K25" s="267"/>
       <c r="M25" s="11" t="s">
         <v>7</v>
       </c>
@@ -4723,17 +4987,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="179"/>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="189"/>
+    <row r="26" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B26" s="228"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="231"/>
       <c r="M26" s="12" t="s">
         <v>8</v>
       </c>
@@ -4770,24 +5034,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="176" t="s">
+    <row r="27" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B27" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="201">
+      <c r="C27" s="216">
         <v>1</v>
       </c>
-      <c r="D27" s="201">
+      <c r="D27" s="216">
         <f>SUM(E27:K28)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="185"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="230"/>
       <c r="M27" s="13" t="s">
         <v>7</v>
       </c>
@@ -4824,17 +5088,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="176"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="185"/>
+    <row r="28" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B28" s="214"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="229"/>
+      <c r="K28" s="230"/>
       <c r="M28" s="13" t="s">
         <v>8</v>
       </c>
@@ -4871,24 +5135,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="179" t="s">
+    <row r="29" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B29" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="211">
+      <c r="C29" s="227">
         <v>1</v>
       </c>
-      <c r="D29" s="211">
+      <c r="D29" s="227">
         <f>SUM(E29:K30)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="189"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="231"/>
       <c r="M29" s="12" t="s">
         <v>7</v>
       </c>
@@ -4925,17 +5189,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="179"/>
-      <c r="C30" s="211"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="189"/>
+    <row r="30" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B30" s="228"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="231"/>
       <c r="M30" s="12" t="s">
         <v>8</v>
       </c>
@@ -4972,24 +5236,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="176" t="s">
+    <row r="31" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B31" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="201">
+      <c r="C31" s="216">
         <v>1</v>
       </c>
-      <c r="D31" s="201">
+      <c r="D31" s="216">
         <f>SUM(E31:K32)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="185"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="229"/>
+      <c r="J31" s="229"/>
+      <c r="K31" s="230"/>
       <c r="M31" s="13" t="s">
         <v>7</v>
       </c>
@@ -5026,17 +5290,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="176"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="185"/>
+    <row r="32" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B32" s="214"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="229"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="230"/>
       <c r="M32" s="13" t="s">
         <v>8</v>
       </c>
@@ -5073,24 +5337,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="179" t="s">
+    <row r="33" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B33" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="211">
+      <c r="C33" s="227">
         <v>1</v>
       </c>
-      <c r="D33" s="211">
+      <c r="D33" s="227">
         <f>SUM(E33:K34)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="189"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="231"/>
       <c r="M33" s="12" t="s">
         <v>7</v>
       </c>
@@ -5127,17 +5391,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="179"/>
-      <c r="C34" s="211"/>
-      <c r="D34" s="211"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="189"/>
+    <row r="34" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B34" s="228"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="231"/>
       <c r="M34" s="12" t="s">
         <v>8</v>
       </c>
@@ -5174,24 +5438,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="176" t="s">
+    <row r="35" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B35" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="201">
+      <c r="C35" s="216">
         <v>1</v>
       </c>
-      <c r="D35" s="201">
+      <c r="D35" s="216">
         <f>SUM(E35:K36)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="185"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="229"/>
+      <c r="J35" s="229"/>
+      <c r="K35" s="230"/>
       <c r="M35" s="13" t="s">
         <v>7</v>
       </c>
@@ -5228,17 +5492,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="176"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="185"/>
+    <row r="36" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B36" s="214"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="230"/>
       <c r="L36" s="6"/>
       <c r="M36" s="13" t="s">
         <v>8</v>
@@ -5277,36 +5541,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="179" t="s">
+    <row r="37" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B37" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="211">
+      <c r="C37" s="227">
         <v>1</v>
       </c>
-      <c r="D37" s="211">
+      <c r="D37" s="227">
         <f>SUM(E37:K38)</f>
         <v>7</v>
       </c>
-      <c r="E37" s="194">
+      <c r="E37" s="181">
         <v>1</v>
       </c>
-      <c r="F37" s="194">
+      <c r="F37" s="181">
         <v>1</v>
       </c>
-      <c r="G37" s="194">
+      <c r="G37" s="181">
         <v>1</v>
       </c>
-      <c r="H37" s="194">
+      <c r="H37" s="181">
         <v>1</v>
       </c>
-      <c r="I37" s="194">
+      <c r="I37" s="181">
         <v>1</v>
       </c>
-      <c r="J37" s="194">
+      <c r="J37" s="181">
         <v>1</v>
       </c>
-      <c r="K37" s="189">
+      <c r="K37" s="231">
         <v>1</v>
       </c>
       <c r="M37" s="12" t="s">
@@ -5345,17 +5609,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="184"/>
-      <c r="C38" s="236"/>
-      <c r="D38" s="236"/>
-      <c r="E38" s="237"/>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="237"/>
-      <c r="K38" s="242"/>
+    <row r="38" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B38" s="194"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="182"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="240"/>
       <c r="L38" s="6"/>
       <c r="M38" s="21" t="s">
         <v>8</v>
@@ -5394,7 +5658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30" ht="6" customHeight="1" thickBot="1">
       <c r="L39" s="6"/>
       <c r="N39" s="6"/>
       <c r="W39" s="32"/>
@@ -5406,36 +5670,36 @@
       <c r="AC39" s="32"/>
       <c r="AD39" s="32"/>
     </row>
-    <row r="40" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="262" t="s">
+    <row r="40" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B40" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="260">
+      <c r="C40" s="191">
         <v>1</v>
       </c>
-      <c r="D40" s="260">
+      <c r="D40" s="191">
         <f>SUM(E40:K41)</f>
         <v>7</v>
       </c>
-      <c r="E40" s="238">
+      <c r="E40" s="185">
         <v>1</v>
       </c>
-      <c r="F40" s="238">
+      <c r="F40" s="185">
         <v>1</v>
       </c>
-      <c r="G40" s="238">
+      <c r="G40" s="185">
         <v>1</v>
       </c>
-      <c r="H40" s="238">
+      <c r="H40" s="185">
         <v>1</v>
       </c>
-      <c r="I40" s="238">
+      <c r="I40" s="185">
         <v>1</v>
       </c>
-      <c r="J40" s="238">
+      <c r="J40" s="185">
         <v>1</v>
       </c>
-      <c r="K40" s="251">
+      <c r="K40" s="236">
         <v>1</v>
       </c>
       <c r="L40" s="47"/>
@@ -5460,17 +5724,17 @@
       <c r="AC40" s="52"/>
       <c r="AD40" s="53"/>
     </row>
-    <row r="41" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="263"/>
-      <c r="C41" s="261"/>
-      <c r="D41" s="261"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="239"/>
-      <c r="H41" s="239"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="239"/>
-      <c r="K41" s="252"/>
+    <row r="41" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B41" s="198"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="237"/>
       <c r="L41" s="47"/>
       <c r="M41" s="46" t="s">
         <v>8</v>
@@ -5493,208 +5757,208 @@
       <c r="AC41" s="58"/>
       <c r="AD41" s="59"/>
     </row>
-    <row r="42" spans="2:30" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B43" s="178" t="s">
+    <row r="42" spans="2:30" ht="6" customHeight="1" thickBot="1"/>
+    <row r="43" spans="2:30">
+      <c r="B43" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="210">
+      <c r="C43" s="195">
         <v>4</v>
       </c>
-      <c r="D43" s="210">
+      <c r="D43" s="195">
         <f>SUM(E43:K44)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="253"/>
-      <c r="F43" s="253"/>
-      <c r="G43" s="253"/>
-      <c r="H43" s="253"/>
-      <c r="I43" s="253"/>
-      <c r="J43" s="253"/>
-      <c r="K43" s="240"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="238"/>
       <c r="L43" s="6"/>
       <c r="M43" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N43" s="42"/>
-      <c r="O43" s="234"/>
-      <c r="P43" s="195"/>
-      <c r="Q43" s="195"/>
-      <c r="R43" s="195"/>
-      <c r="S43" s="195"/>
-      <c r="T43" s="195"/>
-      <c r="U43" s="195"/>
-      <c r="V43" s="195"/>
-      <c r="W43" s="230"/>
-      <c r="X43" s="228"/>
-      <c r="Y43" s="228"/>
-      <c r="Z43" s="228"/>
-      <c r="AA43" s="228"/>
-      <c r="AB43" s="228"/>
-      <c r="AC43" s="228"/>
-      <c r="AD43" s="222"/>
-    </row>
-    <row r="44" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="184"/>
-      <c r="C44" s="236"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="254"/>
-      <c r="F44" s="254"/>
-      <c r="G44" s="254"/>
-      <c r="H44" s="254"/>
-      <c r="I44" s="254"/>
-      <c r="J44" s="254"/>
-      <c r="K44" s="241"/>
+      <c r="O43" s="247"/>
+      <c r="P43" s="260"/>
+      <c r="Q43" s="260"/>
+      <c r="R43" s="260"/>
+      <c r="S43" s="260"/>
+      <c r="T43" s="260"/>
+      <c r="U43" s="260"/>
+      <c r="V43" s="260"/>
+      <c r="W43" s="262"/>
+      <c r="X43" s="258"/>
+      <c r="Y43" s="258"/>
+      <c r="Z43" s="258"/>
+      <c r="AA43" s="258"/>
+      <c r="AB43" s="258"/>
+      <c r="AC43" s="258"/>
+      <c r="AD43" s="252"/>
+    </row>
+    <row r="44" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B44" s="194"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="239"/>
       <c r="L44" s="42"/>
       <c r="M44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N44" s="42"/>
-      <c r="O44" s="235"/>
-      <c r="P44" s="196"/>
-      <c r="Q44" s="196"/>
-      <c r="R44" s="196"/>
-      <c r="S44" s="196"/>
-      <c r="T44" s="196"/>
-      <c r="U44" s="196"/>
-      <c r="V44" s="196"/>
-      <c r="W44" s="231"/>
-      <c r="X44" s="229"/>
-      <c r="Y44" s="229"/>
-      <c r="Z44" s="229"/>
-      <c r="AA44" s="229"/>
-      <c r="AB44" s="229"/>
-      <c r="AC44" s="229"/>
-      <c r="AD44" s="223"/>
-    </row>
-    <row r="45" spans="2:30" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B46" s="183" t="s">
+      <c r="O44" s="248"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="261"/>
+      <c r="R44" s="261"/>
+      <c r="S44" s="261"/>
+      <c r="T44" s="261"/>
+      <c r="U44" s="261"/>
+      <c r="V44" s="261"/>
+      <c r="W44" s="263"/>
+      <c r="X44" s="259"/>
+      <c r="Y44" s="259"/>
+      <c r="Z44" s="259"/>
+      <c r="AA44" s="259"/>
+      <c r="AB44" s="259"/>
+      <c r="AC44" s="259"/>
+      <c r="AD44" s="253"/>
+    </row>
+    <row r="45" spans="2:30" ht="6" customHeight="1" thickBot="1"/>
+    <row r="46" spans="2:30">
+      <c r="B46" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="266">
+      <c r="C46" s="203">
         <v>5</v>
       </c>
-      <c r="D46" s="266">
+      <c r="D46" s="203">
         <f>SUM(E46:K47)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="249"/>
-      <c r="F46" s="249"/>
-      <c r="G46" s="249"/>
-      <c r="H46" s="249"/>
-      <c r="I46" s="249"/>
-      <c r="J46" s="249"/>
-      <c r="K46" s="245"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
+      <c r="H46" s="183"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="232"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="180"/>
+      <c r="M46" s="245"/>
       <c r="N46" s="69"/>
-      <c r="O46" s="232"/>
-      <c r="P46" s="212"/>
-      <c r="Q46" s="212"/>
-      <c r="R46" s="212"/>
-      <c r="S46" s="212"/>
-      <c r="T46" s="212"/>
-      <c r="U46" s="212"/>
-      <c r="V46" s="212"/>
-      <c r="W46" s="224"/>
-      <c r="X46" s="226"/>
-      <c r="Y46" s="226"/>
-      <c r="Z46" s="226"/>
-      <c r="AA46" s="226"/>
-      <c r="AB46" s="226"/>
-      <c r="AC46" s="226"/>
-      <c r="AD46" s="220"/>
-    </row>
-    <row r="47" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="172"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="250"/>
-      <c r="F47" s="250"/>
-      <c r="G47" s="250"/>
-      <c r="H47" s="250"/>
-      <c r="I47" s="250"/>
-      <c r="J47" s="250"/>
-      <c r="K47" s="246"/>
+      <c r="O46" s="243"/>
+      <c r="P46" s="241"/>
+      <c r="Q46" s="241"/>
+      <c r="R46" s="241"/>
+      <c r="S46" s="241"/>
+      <c r="T46" s="241"/>
+      <c r="U46" s="241"/>
+      <c r="V46" s="241"/>
+      <c r="W46" s="254"/>
+      <c r="X46" s="256"/>
+      <c r="Y46" s="256"/>
+      <c r="Z46" s="256"/>
+      <c r="AA46" s="256"/>
+      <c r="AB46" s="256"/>
+      <c r="AC46" s="256"/>
+      <c r="AD46" s="249"/>
+    </row>
+    <row r="47" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B47" s="202"/>
+      <c r="C47" s="204"/>
+      <c r="D47" s="204"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="184"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="184"/>
+      <c r="J47" s="184"/>
+      <c r="K47" s="233"/>
       <c r="L47" s="42"/>
-      <c r="M47" s="181"/>
+      <c r="M47" s="246"/>
       <c r="N47" s="69"/>
-      <c r="O47" s="233"/>
-      <c r="P47" s="213"/>
-      <c r="Q47" s="213"/>
-      <c r="R47" s="213"/>
-      <c r="S47" s="213"/>
-      <c r="T47" s="213"/>
-      <c r="U47" s="213"/>
-      <c r="V47" s="213"/>
-      <c r="W47" s="225"/>
-      <c r="X47" s="227"/>
-      <c r="Y47" s="227"/>
-      <c r="Z47" s="227"/>
-      <c r="AA47" s="227"/>
-      <c r="AB47" s="227"/>
-      <c r="AC47" s="227"/>
-      <c r="AD47" s="221"/>
-    </row>
-    <row r="48" spans="2:30" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="243" t="s">
+      <c r="O47" s="244"/>
+      <c r="P47" s="242"/>
+      <c r="Q47" s="242"/>
+      <c r="R47" s="242"/>
+      <c r="S47" s="242"/>
+      <c r="T47" s="242"/>
+      <c r="U47" s="242"/>
+      <c r="V47" s="242"/>
+      <c r="W47" s="255"/>
+      <c r="X47" s="257"/>
+      <c r="Y47" s="257"/>
+      <c r="Z47" s="257"/>
+      <c r="AA47" s="257"/>
+      <c r="AB47" s="257"/>
+      <c r="AC47" s="257"/>
+      <c r="AD47" s="250"/>
+    </row>
+    <row r="48" spans="2:30" ht="6" customHeight="1" thickBot="1"/>
+    <row r="49" spans="2:13" ht="12.75" customHeight="1">
+      <c r="B49" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="264" t="s">
+      <c r="C49" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="264" t="s">
+      <c r="D49" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="267" t="str">
+      <c r="E49" s="179" t="str">
         <f t="shared" ref="E49:K49" si="1">E22</f>
         <v>CO</v>
       </c>
-      <c r="F49" s="267" t="str">
+      <c r="F49" s="179" t="str">
         <f t="shared" si="1"/>
         <v>PE</v>
       </c>
-      <c r="G49" s="267" t="str">
+      <c r="G49" s="179" t="str">
         <f t="shared" si="1"/>
         <v>EC</v>
       </c>
-      <c r="H49" s="267" t="str">
+      <c r="H49" s="179" t="str">
         <f t="shared" si="1"/>
         <v>HN</v>
       </c>
-      <c r="I49" s="267" t="str">
+      <c r="I49" s="179" t="str">
         <f t="shared" si="1"/>
         <v>SV</v>
       </c>
-      <c r="J49" s="267" t="str">
+      <c r="J49" s="179" t="str">
         <f t="shared" si="1"/>
         <v>PA</v>
       </c>
-      <c r="K49" s="247" t="str">
+      <c r="K49" s="234" t="str">
         <f t="shared" si="1"/>
         <v>AR</v>
       </c>
-      <c r="M49" s="243" t="s">
+      <c r="M49" s="189" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="244"/>
-      <c r="C50" s="265"/>
-      <c r="D50" s="265"/>
-      <c r="E50" s="268"/>
-      <c r="F50" s="268"/>
-      <c r="G50" s="268"/>
-      <c r="H50" s="268"/>
-      <c r="I50" s="268"/>
-      <c r="J50" s="268"/>
-      <c r="K50" s="248"/>
-      <c r="M50" s="244"/>
-    </row>
-    <row r="51" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="2:13" ht="21" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B50" s="190"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="180"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="235"/>
+      <c r="M50" s="190"/>
+    </row>
+    <row r="51" spans="2:13" ht="6" customHeight="1"/>
+    <row r="52" spans="2:13" ht="20">
       <c r="B52" s="39" t="s">
         <v>47</v>
       </c>
@@ -5739,8 +6003,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:13" ht="21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" ht="5.25" customHeight="1"/>
+    <row r="54" spans="2:13" ht="20">
       <c r="B54" s="39" t="s">
         <v>2</v>
       </c>
@@ -5785,8 +6049,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:13" ht="21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" ht="5.25" customHeight="1"/>
+    <row r="56" spans="2:13" ht="20">
       <c r="B56" s="39" t="s">
         <v>48</v>
       </c>
@@ -5833,32 +6097,195 @@
     </row>
   </sheetData>
   <mergeCells count="239">
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="B2:AD3"/>
     <mergeCell ref="O22:V22"/>
     <mergeCell ref="W22:AD22"/>
@@ -5883,200 +6310,520 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="U46:U47"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="X46:X47"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="Z46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.17" right="0.17" top="0.19" bottom="0.16" header="0" footer="0"/>
-  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="74" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="286" customFormat="1">
+      <c r="A1" s="290"/>
+      <c r="B1" s="290" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="290" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="290" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="290" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="290" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="290" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="290" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="291">
+        <v>1</v>
+      </c>
+      <c r="B2" s="292">
+        <v>1</v>
+      </c>
+      <c r="C2" s="291" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="291" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="291" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="293">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="291">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="292">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="291" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="291" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="291" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="293"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="291">
+        <f t="shared" ref="A4:A19" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="292">
+        <v>2</v>
+      </c>
+      <c r="C4" s="291" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="291" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="291">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="292">
+        <v>2.1</v>
+      </c>
+      <c r="C5" s="291" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="291">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="292">
+        <v>3</v>
+      </c>
+      <c r="C6" s="291" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="291" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="291" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="291" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="291">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="292">
+        <v>3.1</v>
+      </c>
+      <c r="C7" s="291" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="291" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="291">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="292">
+        <v>3.2</v>
+      </c>
+      <c r="C8" s="291" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="291" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="291"/>
+      <c r="F8" s="291" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="291"/>
+      <c r="H8" s="291"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="291">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="292">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="291" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="291">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="292">
+        <v>4</v>
+      </c>
+      <c r="C10" s="291" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="291" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="291"/>
+      <c r="F10" s="291" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="291"/>
+      <c r="H10" s="291"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="291">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="292">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C11" s="291" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="291"/>
+      <c r="E11" s="291"/>
+      <c r="F11" s="291" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="291"/>
+      <c r="H11" s="291"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="291">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="292">
+        <v>4.2</v>
+      </c>
+      <c r="C12" s="291" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="291"/>
+      <c r="E12" s="291"/>
+      <c r="F12" s="291" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="291"/>
+      <c r="H12" s="291"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="291">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="292">
+        <v>5</v>
+      </c>
+      <c r="C13" s="291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="291" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="291" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="291"/>
+      <c r="H13" s="291"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="291">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="292">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C14" s="291" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="291" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="291" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="291" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="291"/>
+      <c r="H14" s="291"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="291">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="292">
+        <v>5.2</v>
+      </c>
+      <c r="C15" s="291" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="291" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="291" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="291" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="291"/>
+      <c r="H15" s="291"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="294">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="295">
+        <v>6.1</v>
+      </c>
+      <c r="C16" s="294" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="294" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="294"/>
+      <c r="F16" s="294" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="294">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="295">
+        <v>6.2</v>
+      </c>
+      <c r="C17" s="294" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="294" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="294"/>
+      <c r="F17" s="294" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="294"/>
+      <c r="H17" s="294"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="296">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="297">
+        <v>7.1</v>
+      </c>
+      <c r="C18" s="296" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="296" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="296" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="296" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="296"/>
+      <c r="H18" s="296"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="296">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="297">
+        <v>7.2</v>
+      </c>
+      <c r="C19" s="296" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="296" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="296" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="296" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="296"/>
+      <c r="H19" s="296"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="298"/>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="289" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="289">
+        <f>COUNTIF(F$2:F$20,"GZ")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="287"/>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="289" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="289">
+        <f>COUNTIF(F$2:F$20,"AA")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="288"/>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="289" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="289">
+        <f>COUNTIF(F$2:F$20,"JS")</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/entregables/Binding Variability v1.000F.xlsx
+++ b/entregables/Binding Variability v1.000F.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="160" windowWidth="38500" windowHeight="22940" tabRatio="771"/>
+    <workbookView xWindow="480" yWindow="160" windowWidth="38500" windowHeight="22940" tabRatio="771" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;S Final" sheetId="38" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="116">
   <si>
     <t>On Site Support</t>
   </si>
@@ -233,15 +233,6 @@
     <t>Bike Configuration</t>
   </si>
   <si>
-    <t>Ruta Montaña</t>
-  </si>
-  <si>
-    <t>Ruta Carretera</t>
-  </si>
-  <si>
-    <t>Ruta Mixta</t>
-  </si>
-  <si>
     <t>Config</t>
   </si>
   <si>
@@ -263,15 +254,9 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>En Progreso</t>
-  </si>
-  <si>
     <t>Avance</t>
   </si>
   <si>
-    <t>No Iniciada</t>
-  </si>
-  <si>
     <t>Alquiler de Bicicletas</t>
   </si>
   <si>
@@ -375,6 +360,18 @@
   </si>
   <si>
     <t>Strategy/Servicios SOA? (USANDO SPLOT, FEATURE IDE)</t>
+  </si>
+  <si>
+    <t>Finalizada</t>
+  </si>
+  <si>
+    <t>En Proceso</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>No se desarrolla por Beneficio del profesor</t>
   </si>
 </sst>
 </file>
@@ -546,7 +543,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +627,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -1400,7 +1403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -1444,8 +1447,22 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1843,463 +1860,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2323,8 +1883,490 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -2344,6 +2386,13 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
@@ -2363,6 +2412,13 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -3227,7 +3283,7 @@
   </sheetPr>
   <dimension ref="A2:V42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
@@ -3250,27 +3306,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" ht="27.75" customHeight="1">
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="148"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="156"/>
     </row>
     <row r="3" spans="3:21" ht="10.5" customHeight="1"/>
     <row r="4" spans="3:21" outlineLevel="1">
@@ -3302,10 +3358,10 @@
       <c r="G5" s="107"/>
       <c r="H5" s="107"/>
       <c r="I5" s="107"/>
-      <c r="J5" s="149" t="s">
+      <c r="J5" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="150"/>
+      <c r="K5" s="158"/>
       <c r="L5" s="107"/>
       <c r="M5" s="107"/>
       <c r="N5" s="107"/>
@@ -3325,8 +3381,8 @@
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="152"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="160"/>
       <c r="L6" s="107"/>
       <c r="M6" s="107"/>
       <c r="N6" s="107"/>
@@ -3383,7 +3439,7 @@
     <row r="9" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="161" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="107"/>
@@ -3406,24 +3462,24 @@
     <row r="10" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C10" s="106"/>
       <c r="D10" s="107"/>
-      <c r="E10" s="153"/>
+      <c r="E10" s="161"/>
       <c r="F10" s="107"/>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="155"/>
+      <c r="H10" s="163"/>
       <c r="I10" s="107"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
       <c r="L10" s="107"/>
-      <c r="M10" s="159" t="s">
+      <c r="M10" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="160"/>
+      <c r="N10" s="168"/>
       <c r="O10" s="107"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
       <c r="S10" s="107"/>
       <c r="T10" s="107"/>
       <c r="U10" s="108"/>
@@ -3431,16 +3487,16 @@
     <row r="11" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C11" s="106"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="153"/>
+      <c r="E11" s="161"/>
       <c r="F11" s="107"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="157"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165"/>
       <c r="I11" s="107"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
       <c r="L11" s="107"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="162"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="170"/>
       <c r="O11" s="107"/>
       <c r="P11" s="107"/>
       <c r="Q11" s="107"/>
@@ -3494,18 +3550,18 @@
     <row r="14" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C14" s="106"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="139"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="107"/>
       <c r="G14" s="107"/>
       <c r="H14" s="107"/>
       <c r="I14" s="107"/>
       <c r="J14" s="130"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="141"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
       <c r="M14" s="107"/>
       <c r="N14" s="107"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="141"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="149"/>
       <c r="Q14" s="107"/>
       <c r="R14" s="107"/>
       <c r="S14" s="107"/>
@@ -3515,18 +3571,18 @@
     <row r="15" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C15" s="106"/>
       <c r="D15" s="107"/>
-      <c r="E15" s="139"/>
+      <c r="E15" s="177"/>
       <c r="F15" s="107"/>
       <c r="G15" s="107"/>
       <c r="H15" s="107"/>
       <c r="I15" s="107"/>
       <c r="J15" s="107"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="151"/>
       <c r="M15" s="107"/>
       <c r="N15" s="107"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="143"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
       <c r="Q15" s="107"/>
       <c r="R15" s="107"/>
       <c r="S15" s="107"/>
@@ -3536,7 +3592,7 @@
     <row r="16" spans="3:21" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C16" s="106"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="139"/>
+      <c r="E16" s="177"/>
       <c r="F16" s="107"/>
       <c r="G16" s="107"/>
       <c r="H16" s="107"/>
@@ -3547,9 +3603,9 @@
       <c r="M16" s="107"/>
       <c r="N16" s="107"/>
       <c r="O16" s="107"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
       <c r="S16" s="107"/>
       <c r="T16" s="107"/>
       <c r="U16" s="108"/>
@@ -3557,15 +3613,15 @@
     <row r="17" spans="1:22" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="C17" s="106"/>
       <c r="D17" s="107"/>
-      <c r="E17" s="139"/>
+      <c r="E17" s="177"/>
       <c r="F17" s="107"/>
       <c r="G17" s="107"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="107"/>
       <c r="K17" s="107"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
       <c r="N17" s="107"/>
       <c r="O17" s="107"/>
       <c r="P17" s="107"/>
@@ -3581,12 +3637,12 @@
       <c r="E18" s="107"/>
       <c r="F18" s="107"/>
       <c r="G18" s="107"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="107"/>
       <c r="K18" s="107"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
       <c r="N18" s="107"/>
       <c r="O18" s="107"/>
       <c r="P18" s="107"/>
@@ -3640,84 +3696,84 @@
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" thickBot="1"/>
     <row r="22" spans="1:22">
-      <c r="C22" s="163" t="str">
+      <c r="C22" s="178" t="str">
         <f>J5</f>
         <v>Variabilidad</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="165"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
+      <c r="N22" s="179"/>
+      <c r="O22" s="179"/>
+      <c r="P22" s="179"/>
+      <c r="Q22" s="179"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="179"/>
+      <c r="T22" s="179"/>
+      <c r="U22" s="180"/>
     </row>
     <row r="23" spans="1:22" ht="15" thickBot="1">
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
-      <c r="M23" s="167"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="167"/>
-      <c r="P23" s="167"/>
-      <c r="Q23" s="167"/>
-      <c r="R23" s="167"/>
-      <c r="S23" s="167"/>
-      <c r="T23" s="167"/>
-      <c r="U23" s="168"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="182"/>
+      <c r="S23" s="182"/>
+      <c r="T23" s="182"/>
+      <c r="U23" s="183"/>
     </row>
     <row r="24" spans="1:22" ht="6.75" customHeight="1" thickBot="1">
       <c r="C24" s="115"/>
       <c r="E24" s="116"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="169"/>
-      <c r="Q24" s="169"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="169"/>
-      <c r="T24" s="169"/>
-      <c r="U24" s="169"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="184"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A25" s="117"/>
-      <c r="C25" s="170" t="s">
+      <c r="C25" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="172" t="s">
+      <c r="E25" s="187" t="s">
         <v>57</v>
       </c>
       <c r="V25" s="118"/>
     </row>
     <row r="26" spans="1:22" ht="13.5" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A26" s="119"/>
-      <c r="C26" s="171"/>
-      <c r="E26" s="173"/>
+      <c r="C26" s="186"/>
+      <c r="E26" s="188"/>
     </row>
     <row r="27" spans="1:22" ht="6.75" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A27" s="119"/>
@@ -3726,10 +3782,10 @@
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A28" s="119"/>
-      <c r="C28" s="175" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="133" t="s">
+      <c r="C28" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="171" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="123" t="s">
@@ -3738,63 +3794,63 @@
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A29" s="119"/>
-      <c r="C29" s="176"/>
-      <c r="E29" s="134"/>
+      <c r="C29" s="147"/>
+      <c r="E29" s="172"/>
       <c r="F29" s="132" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A30" s="119"/>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="135" t="s">
+      <c r="E30" s="173" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A31" s="119"/>
-      <c r="C31" s="174"/>
-      <c r="E31" s="136"/>
+      <c r="C31" s="189"/>
+      <c r="E31" s="174"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A32" s="119"/>
-      <c r="C32" s="178" t="s">
-        <v>110</v>
+      <c r="C32" s="191" t="s">
+        <v>105</v>
       </c>
       <c r="E32" s="123" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F32" s="123" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27" customHeight="1" outlineLevel="1">
       <c r="A33" s="119"/>
-      <c r="C33" s="178"/>
+      <c r="C33" s="191"/>
       <c r="E33" s="122" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F33" s="132" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A34" s="119"/>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="190" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="124"/>
-      <c r="E34" s="137" t="s">
+      <c r="E34" s="175" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A35" s="119"/>
-      <c r="C35" s="177"/>
+      <c r="C35" s="190"/>
       <c r="D35" s="124"/>
-      <c r="E35" s="138"/>
+      <c r="E35" s="176"/>
     </row>
     <row r="36" spans="1:6" ht="6.75" customHeight="1" outlineLevel="1">
       <c r="A36" s="119"/>
@@ -3808,19 +3864,19 @@
     </row>
     <row r="38" spans="1:6" ht="34" customHeight="1" outlineLevel="1">
       <c r="A38" s="128"/>
-      <c r="C38" s="175" t="s">
+      <c r="C38" s="146" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="121" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F38" s="121" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A39" s="128"/>
-      <c r="C39" s="176"/>
+      <c r="C39" s="147"/>
       <c r="E39" s="129"/>
       <c r="F39" s="129"/>
     </row>
@@ -3837,11 +3893,11 @@
     <row r="42" spans="1:6" ht="6" customHeight="1" outlineLevel="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="C2:U2"/>
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="E9:E11"/>
@@ -3849,6 +3905,11 @@
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="M10:N11"/>
     <mergeCell ref="P10:R10"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="L17:M18"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E34:E35"/>
@@ -3860,11 +3921,6 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="R24:U24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
@@ -3912,68 +3968,68 @@
   <sheetData>
     <row r="1" spans="2:34" ht="6.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:34">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="276"/>
+      <c r="AA2" s="276"/>
+      <c r="AB2" s="276"/>
+      <c r="AC2" s="276"/>
+      <c r="AD2" s="277"/>
     </row>
     <row r="3" spans="2:34" ht="15" thickBot="1">
-      <c r="B3" s="208"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="210"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="279"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="279"/>
+      <c r="AA3" s="279"/>
+      <c r="AB3" s="279"/>
+      <c r="AC3" s="279"/>
+      <c r="AD3" s="280"/>
     </row>
     <row r="4" spans="2:34" ht="6.75" customHeight="1" thickBot="1">
       <c r="B4" s="15"/>
@@ -3987,94 +4043,94 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="M4" s="16"/>
-      <c r="O4" s="264"/>
-      <c r="P4" s="264"/>
-      <c r="Q4" s="264"/>
-      <c r="R4" s="264"/>
-      <c r="S4" s="264"/>
-      <c r="T4" s="264"/>
-      <c r="U4" s="264"/>
-      <c r="V4" s="264"/>
-      <c r="W4" s="264"/>
-      <c r="X4" s="264"/>
-      <c r="Y4" s="264"/>
-      <c r="Z4" s="264"/>
-      <c r="AA4" s="264"/>
-      <c r="AB4" s="264"/>
-      <c r="AC4" s="264"/>
-      <c r="AD4" s="264"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="235"/>
+      <c r="U4" s="235"/>
+      <c r="V4" s="235"/>
+      <c r="W4" s="235"/>
+      <c r="X4" s="235"/>
+      <c r="Y4" s="235"/>
+      <c r="Z4" s="235"/>
+      <c r="AA4" s="235"/>
+      <c r="AB4" s="235"/>
+      <c r="AC4" s="235"/>
+      <c r="AD4" s="235"/>
     </row>
     <row r="5" spans="2:34" ht="15">
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="283" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="223" t="s">
+      <c r="C5" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="223" t="s">
+      <c r="D5" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="225" t="s">
+      <c r="F5" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="225" t="s">
+      <c r="G5" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="225" t="s">
+      <c r="H5" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="225" t="s">
+      <c r="I5" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="225" t="s">
+      <c r="J5" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="265" t="s">
+      <c r="K5" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="220" t="s">
+      <c r="M5" s="285" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="211" t="s">
+      <c r="O5" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="213"/>
-      <c r="W5" s="211" t="s">
+      <c r="P5" s="233"/>
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="233"/>
+      <c r="V5" s="234"/>
+      <c r="W5" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="212"/>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="212"/>
-      <c r="AA5" s="212"/>
-      <c r="AB5" s="212"/>
-      <c r="AC5" s="212"/>
-      <c r="AD5" s="213"/>
+      <c r="X5" s="233"/>
+      <c r="Y5" s="233"/>
+      <c r="Z5" s="233"/>
+      <c r="AA5" s="233"/>
+      <c r="AB5" s="233"/>
+      <c r="AC5" s="233"/>
+      <c r="AD5" s="234"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
     <row r="6" spans="2:34" ht="15" thickBot="1">
-      <c r="B6" s="219"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="266"/>
-      <c r="M6" s="221"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="209"/>
+      <c r="M6" s="286"/>
       <c r="O6" s="62" t="s">
         <v>30</v>
       </c>
@@ -4136,41 +4192,41 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="M7" s="17"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="251"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="251"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="251"/>
-      <c r="W7" s="251"/>
-      <c r="X7" s="251"/>
-      <c r="Y7" s="251"/>
-      <c r="Z7" s="251"/>
-      <c r="AA7" s="251"/>
-      <c r="AB7" s="251"/>
-      <c r="AC7" s="251"/>
-      <c r="AD7" s="251"/>
+      <c r="O7" s="236"/>
+      <c r="P7" s="236"/>
+      <c r="Q7" s="236"/>
+      <c r="R7" s="236"/>
+      <c r="S7" s="236"/>
+      <c r="T7" s="236"/>
+      <c r="U7" s="236"/>
+      <c r="V7" s="236"/>
+      <c r="W7" s="236"/>
+      <c r="X7" s="236"/>
+      <c r="Y7" s="236"/>
+      <c r="Z7" s="236"/>
+      <c r="AA7" s="236"/>
+      <c r="AB7" s="236"/>
+      <c r="AC7" s="236"/>
+      <c r="AD7" s="236"/>
     </row>
     <row r="8" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="195">
-        <v>3</v>
-      </c>
-      <c r="D8" s="195" t="str">
+      <c r="C8" s="222">
+        <v>3</v>
+      </c>
+      <c r="D8" s="222" t="str">
         <f>IF(SUM(E8:K9)=0,"",SUM(E8:K9))</f>
         <v/>
       </c>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="267"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="199"/>
       <c r="M8" s="11" t="s">
         <v>43</v>
       </c>
@@ -4202,16 +4258,16 @@
       <c r="AD8" s="35"/>
     </row>
     <row r="9" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B9" s="228"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="231"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="196"/>
       <c r="M9" s="12" t="s">
         <v>44</v>
       </c>
@@ -4235,23 +4291,23 @@
       <c r="AD9" s="30"/>
     </row>
     <row r="10" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="216">
+      <c r="C10" s="212">
         <v>1</v>
       </c>
-      <c r="D10" s="216" t="str">
+      <c r="D10" s="212" t="str">
         <f>IF(SUM(E10:K11)=0,"",SUM(E10:K11))</f>
         <v/>
       </c>
-      <c r="E10" s="229"/>
-      <c r="F10" s="229"/>
-      <c r="G10" s="229"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="229"/>
-      <c r="J10" s="229"/>
-      <c r="K10" s="230"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="192"/>
       <c r="M10" s="13" t="s">
         <v>5</v>
       </c>
@@ -4287,16 +4343,16 @@
       <c r="AD10" s="31"/>
     </row>
     <row r="11" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B11" s="214"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="278"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="229"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="230"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="192"/>
       <c r="M11" s="13" t="s">
         <v>6</v>
       </c>
@@ -4320,29 +4376,29 @@
       <c r="AD11" s="31"/>
     </row>
     <row r="12" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="274">
+      <c r="C12" s="214">
         <v>2</v>
       </c>
-      <c r="D12" s="268">
+      <c r="D12" s="227">
         <f>SUM(E12:K12)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="277">
+      <c r="E12" s="201">
         <v>1</v>
       </c>
-      <c r="F12" s="277"/>
-      <c r="G12" s="277">
+      <c r="F12" s="201"/>
+      <c r="G12" s="201">
         <v>1</v>
       </c>
-      <c r="H12" s="272"/>
-      <c r="I12" s="277">
+      <c r="H12" s="229"/>
+      <c r="I12" s="201">
         <v>1</v>
       </c>
-      <c r="J12" s="277"/>
-      <c r="K12" s="281"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="194"/>
       <c r="M12" s="12" t="s">
         <v>40</v>
       </c>
@@ -4378,19 +4434,19 @@
       <c r="AD12" s="30"/>
     </row>
     <row r="13" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B13" s="228"/>
-      <c r="C13" s="275"/>
-      <c r="D13" s="268">
+      <c r="B13" s="231"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="227">
         <f>SUM(E13:K14)</f>
         <v>4</v>
       </c>
-      <c r="E13" s="285"/>
-      <c r="F13" s="277"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="272"/>
-      <c r="I13" s="277"/>
-      <c r="J13" s="277"/>
-      <c r="K13" s="281"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="194"/>
       <c r="M13" s="12" t="s">
         <v>10</v>
       </c>
@@ -4426,29 +4482,29 @@
       <c r="AD13" s="30"/>
     </row>
     <row r="14" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B14" s="214" t="s">
+      <c r="B14" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="216">
+      <c r="C14" s="212">
         <v>2</v>
       </c>
-      <c r="D14" s="273">
+      <c r="D14" s="213">
         <f>SUM(E14:K15)</f>
         <v>4</v>
       </c>
-      <c r="E14" s="279"/>
-      <c r="F14" s="271">
+      <c r="E14" s="218"/>
+      <c r="F14" s="200">
         <v>1</v>
       </c>
-      <c r="G14" s="271"/>
-      <c r="H14" s="270">
+      <c r="G14" s="200"/>
+      <c r="H14" s="228">
         <v>1</v>
       </c>
-      <c r="I14" s="271"/>
-      <c r="J14" s="271">
+      <c r="I14" s="200"/>
+      <c r="J14" s="200">
         <v>1</v>
       </c>
-      <c r="K14" s="280">
+      <c r="K14" s="193">
         <v>1</v>
       </c>
       <c r="M14" s="13" t="s">
@@ -4486,16 +4542,16 @@
       <c r="AD14" s="31"/>
     </row>
     <row r="15" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B15" s="214"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="273"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="271"/>
-      <c r="G15" s="271"/>
-      <c r="H15" s="270"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="280"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="193"/>
       <c r="M15" s="13" t="s">
         <v>11</v>
       </c>
@@ -4533,23 +4589,23 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="227">
+      <c r="C16" s="223">
         <v>2</v>
       </c>
-      <c r="D16" s="227">
+      <c r="D16" s="223">
         <f>SUM(E16:K17)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="276"/>
-      <c r="F16" s="276"/>
-      <c r="G16" s="276"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="231"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="196"/>
       <c r="M16" s="12" t="s">
         <v>0</v>
       </c>
@@ -4587,16 +4643,16 @@
       <c r="AD16" s="30"/>
     </row>
     <row r="17" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B17" s="228"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="231"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="196"/>
       <c r="M17" s="12" t="s">
         <v>41</v>
       </c>
@@ -4624,19 +4680,19 @@
       <c r="AD17" s="30"/>
     </row>
     <row r="18" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B18" s="228"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227">
+      <c r="B18" s="231"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223">
         <f>SUM(E18:K20)</f>
         <v>6</v>
       </c>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="231"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="196"/>
       <c r="M18" s="12" t="s">
         <v>51</v>
       </c>
@@ -4670,33 +4726,33 @@
       <c r="AD18" s="30"/>
     </row>
     <row r="19" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B19" s="214" t="s">
+      <c r="B19" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="216">
+      <c r="C19" s="212">
         <v>7</v>
       </c>
-      <c r="D19" s="216">
+      <c r="D19" s="212">
         <f>SUM(E19:K20)</f>
         <v>6</v>
       </c>
-      <c r="E19" s="229"/>
-      <c r="F19" s="229">
+      <c r="E19" s="210"/>
+      <c r="F19" s="210">
         <v>1</v>
       </c>
-      <c r="G19" s="229">
+      <c r="G19" s="210">
         <v>1</v>
       </c>
-      <c r="H19" s="229">
+      <c r="H19" s="210">
         <v>1</v>
       </c>
-      <c r="I19" s="229">
+      <c r="I19" s="210">
         <v>1</v>
       </c>
-      <c r="J19" s="283">
+      <c r="J19" s="197">
         <v>1</v>
       </c>
-      <c r="K19" s="230">
+      <c r="K19" s="192">
         <v>1</v>
       </c>
       <c r="L19" s="6"/>
@@ -4734,16 +4790,16 @@
       <c r="AD19" s="61"/>
     </row>
     <row r="20" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="215"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="269"/>
-      <c r="G20" s="269"/>
-      <c r="H20" s="269"/>
-      <c r="I20" s="269"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="282"/>
+      <c r="B20" s="281"/>
+      <c r="C20" s="282"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="195"/>
       <c r="L20" s="22"/>
       <c r="M20" s="14" t="s">
         <v>14</v>
@@ -4795,82 +4851,82 @@
       <c r="AD21" s="32"/>
     </row>
     <row r="22" spans="2:30" ht="15">
-      <c r="B22" s="218" t="s">
+      <c r="B22" s="283" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="223" t="s">
+      <c r="C22" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="223" t="s">
+      <c r="D22" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="225" t="str">
+      <c r="E22" s="206" t="str">
         <f t="shared" ref="E22:K22" si="0">E5</f>
         <v>CO</v>
       </c>
-      <c r="F22" s="225" t="str">
+      <c r="F22" s="206" t="str">
         <f t="shared" si="0"/>
         <v>PE</v>
       </c>
-      <c r="G22" s="225" t="str">
+      <c r="G22" s="206" t="str">
         <f t="shared" si="0"/>
         <v>EC</v>
       </c>
-      <c r="H22" s="225" t="str">
+      <c r="H22" s="206" t="str">
         <f t="shared" si="0"/>
         <v>HN</v>
       </c>
-      <c r="I22" s="225" t="str">
+      <c r="I22" s="206" t="str">
         <f t="shared" si="0"/>
         <v>SV</v>
       </c>
-      <c r="J22" s="225" t="str">
+      <c r="J22" s="206" t="str">
         <f t="shared" si="0"/>
         <v>PA</v>
       </c>
-      <c r="K22" s="265" t="str">
+      <c r="K22" s="208" t="str">
         <f t="shared" si="0"/>
         <v>AR</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="220" t="s">
+      <c r="M22" s="285" t="s">
         <v>46</v>
       </c>
       <c r="N22" s="6"/>
-      <c r="O22" s="211" t="s">
+      <c r="O22" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="212"/>
-      <c r="Q22" s="212"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="212"/>
-      <c r="U22" s="212"/>
-      <c r="V22" s="213"/>
-      <c r="W22" s="211" t="s">
+      <c r="P22" s="233"/>
+      <c r="Q22" s="233"/>
+      <c r="R22" s="233"/>
+      <c r="S22" s="233"/>
+      <c r="T22" s="233"/>
+      <c r="U22" s="233"/>
+      <c r="V22" s="234"/>
+      <c r="W22" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="X22" s="212"/>
-      <c r="Y22" s="212"/>
-      <c r="Z22" s="212"/>
-      <c r="AA22" s="212"/>
-      <c r="AB22" s="212"/>
-      <c r="AC22" s="212"/>
-      <c r="AD22" s="213"/>
+      <c r="X22" s="233"/>
+      <c r="Y22" s="233"/>
+      <c r="Z22" s="233"/>
+      <c r="AA22" s="233"/>
+      <c r="AB22" s="233"/>
+      <c r="AC22" s="233"/>
+      <c r="AD22" s="234"/>
     </row>
     <row r="23" spans="2:30" ht="15" thickBot="1">
-      <c r="B23" s="219"/>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="226"/>
-      <c r="J23" s="226"/>
-      <c r="K23" s="266"/>
+      <c r="B23" s="284"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="209"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="221"/>
+      <c r="M23" s="286"/>
       <c r="N23" s="6"/>
       <c r="O23" s="62" t="s">
         <v>30</v>
@@ -4934,23 +4990,23 @@
       <c r="AD24" s="32"/>
     </row>
     <row r="25" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B25" s="193" t="s">
+      <c r="B25" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="195">
+      <c r="C25" s="222">
         <v>1</v>
       </c>
-      <c r="D25" s="195">
+      <c r="D25" s="222">
         <f>SUM(E25:K26)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="222"/>
-      <c r="F25" s="222"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="222"/>
-      <c r="J25" s="222"/>
-      <c r="K25" s="267"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="199"/>
       <c r="M25" s="11" t="s">
         <v>7</v>
       </c>
@@ -4988,16 +5044,16 @@
       </c>
     </row>
     <row r="26" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B26" s="228"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="231"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="223"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="196"/>
       <c r="M26" s="12" t="s">
         <v>8</v>
       </c>
@@ -5035,23 +5091,23 @@
       </c>
     </row>
     <row r="27" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B27" s="214" t="s">
+      <c r="B27" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="216">
+      <c r="C27" s="212">
         <v>1</v>
       </c>
-      <c r="D27" s="216">
+      <c r="D27" s="212">
         <f>SUM(E27:K28)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="230"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="192"/>
       <c r="M27" s="13" t="s">
         <v>7</v>
       </c>
@@ -5089,16 +5145,16 @@
       </c>
     </row>
     <row r="28" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B28" s="214"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="229"/>
-      <c r="J28" s="229"/>
-      <c r="K28" s="230"/>
+      <c r="B28" s="226"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="210"/>
+      <c r="K28" s="192"/>
       <c r="M28" s="13" t="s">
         <v>8</v>
       </c>
@@ -5136,23 +5192,23 @@
       </c>
     </row>
     <row r="29" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B29" s="228" t="s">
+      <c r="B29" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="227">
+      <c r="C29" s="223">
         <v>1</v>
       </c>
-      <c r="D29" s="227">
+      <c r="D29" s="223">
         <f>SUM(E29:K30)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="231"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="196"/>
       <c r="M29" s="12" t="s">
         <v>7</v>
       </c>
@@ -5190,16 +5246,16 @@
       </c>
     </row>
     <row r="30" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B30" s="228"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="231"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="203"/>
+      <c r="K30" s="196"/>
       <c r="M30" s="12" t="s">
         <v>8</v>
       </c>
@@ -5237,23 +5293,23 @@
       </c>
     </row>
     <row r="31" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B31" s="214" t="s">
+      <c r="B31" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="216">
+      <c r="C31" s="212">
         <v>1</v>
       </c>
-      <c r="D31" s="216">
+      <c r="D31" s="212">
         <f>SUM(E31:K32)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="229"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="229"/>
-      <c r="H31" s="229"/>
-      <c r="I31" s="229"/>
-      <c r="J31" s="229"/>
-      <c r="K31" s="230"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="210"/>
+      <c r="K31" s="192"/>
       <c r="M31" s="13" t="s">
         <v>7</v>
       </c>
@@ -5291,16 +5347,16 @@
       </c>
     </row>
     <row r="32" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B32" s="214"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="229"/>
-      <c r="J32" s="229"/>
-      <c r="K32" s="230"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="210"/>
+      <c r="K32" s="192"/>
       <c r="M32" s="13" t="s">
         <v>8</v>
       </c>
@@ -5338,23 +5394,23 @@
       </c>
     </row>
     <row r="33" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B33" s="228" t="s">
+      <c r="B33" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="227">
+      <c r="C33" s="223">
         <v>1</v>
       </c>
-      <c r="D33" s="227">
+      <c r="D33" s="223">
         <f>SUM(E33:K34)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="231"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="196"/>
       <c r="M33" s="12" t="s">
         <v>7</v>
       </c>
@@ -5392,16 +5448,16 @@
       </c>
     </row>
     <row r="34" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B34" s="228"/>
-      <c r="C34" s="227"/>
-      <c r="D34" s="227"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="231"/>
+      <c r="B34" s="231"/>
+      <c r="C34" s="223"/>
+      <c r="D34" s="223"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="203"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="203"/>
+      <c r="K34" s="196"/>
       <c r="M34" s="12" t="s">
         <v>8</v>
       </c>
@@ -5439,23 +5495,23 @@
       </c>
     </row>
     <row r="35" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B35" s="214" t="s">
+      <c r="B35" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="216">
+      <c r="C35" s="212">
         <v>1</v>
       </c>
-      <c r="D35" s="216">
+      <c r="D35" s="212">
         <f>SUM(E35:K36)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="229"/>
-      <c r="J35" s="229"/>
-      <c r="K35" s="230"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="192"/>
       <c r="M35" s="13" t="s">
         <v>7</v>
       </c>
@@ -5493,16 +5549,16 @@
       </c>
     </row>
     <row r="36" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B36" s="214"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="216"/>
-      <c r="E36" s="229"/>
-      <c r="F36" s="229"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="230"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="212"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="210"/>
+      <c r="K36" s="192"/>
       <c r="L36" s="6"/>
       <c r="M36" s="13" t="s">
         <v>8</v>
@@ -5542,35 +5598,35 @@
       </c>
     </row>
     <row r="37" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B37" s="228" t="s">
+      <c r="B37" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="227">
+      <c r="C37" s="223">
         <v>1</v>
       </c>
-      <c r="D37" s="227">
+      <c r="D37" s="223">
         <f>SUM(E37:K38)</f>
         <v>7</v>
       </c>
-      <c r="E37" s="181">
+      <c r="E37" s="203">
         <v>1</v>
       </c>
-      <c r="F37" s="181">
+      <c r="F37" s="203">
         <v>1</v>
       </c>
-      <c r="G37" s="181">
+      <c r="G37" s="203">
         <v>1</v>
       </c>
-      <c r="H37" s="181">
+      <c r="H37" s="203">
         <v>1</v>
       </c>
-      <c r="I37" s="181">
+      <c r="I37" s="203">
         <v>1</v>
       </c>
-      <c r="J37" s="181">
+      <c r="J37" s="203">
         <v>1</v>
       </c>
-      <c r="K37" s="231">
+      <c r="K37" s="196">
         <v>1</v>
       </c>
       <c r="M37" s="12" t="s">
@@ -5610,16 +5666,16 @@
       </c>
     </row>
     <row r="38" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="194"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="240"/>
+      <c r="B38" s="261"/>
+      <c r="C38" s="255"/>
+      <c r="D38" s="255"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="256"/>
+      <c r="H38" s="256"/>
+      <c r="I38" s="256"/>
+      <c r="J38" s="256"/>
+      <c r="K38" s="262"/>
       <c r="L38" s="6"/>
       <c r="M38" s="21" t="s">
         <v>8</v>
@@ -5671,35 +5727,35 @@
       <c r="AD39" s="32"/>
     </row>
     <row r="40" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B40" s="197" t="s">
+      <c r="B40" s="289" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="191">
+      <c r="C40" s="287">
         <v>1</v>
       </c>
-      <c r="D40" s="191">
+      <c r="D40" s="287">
         <f>SUM(E40:K41)</f>
         <v>7</v>
       </c>
-      <c r="E40" s="185">
+      <c r="E40" s="257">
         <v>1</v>
       </c>
-      <c r="F40" s="185">
+      <c r="F40" s="257">
         <v>1</v>
       </c>
-      <c r="G40" s="185">
+      <c r="G40" s="257">
         <v>1</v>
       </c>
-      <c r="H40" s="185">
+      <c r="H40" s="257">
         <v>1</v>
       </c>
-      <c r="I40" s="185">
+      <c r="I40" s="257">
         <v>1</v>
       </c>
-      <c r="J40" s="185">
+      <c r="J40" s="257">
         <v>1</v>
       </c>
-      <c r="K40" s="236">
+      <c r="K40" s="271">
         <v>1</v>
       </c>
       <c r="L40" s="47"/>
@@ -5725,16 +5781,16 @@
       <c r="AD40" s="53"/>
     </row>
     <row r="41" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="198"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="237"/>
+      <c r="B41" s="290"/>
+      <c r="C41" s="288"/>
+      <c r="D41" s="288"/>
+      <c r="E41" s="258"/>
+      <c r="F41" s="258"/>
+      <c r="G41" s="258"/>
+      <c r="H41" s="258"/>
+      <c r="I41" s="258"/>
+      <c r="J41" s="258"/>
+      <c r="K41" s="272"/>
       <c r="L41" s="47"/>
       <c r="M41" s="46" t="s">
         <v>8</v>
@@ -5759,203 +5815,203 @@
     </row>
     <row r="42" spans="2:30" ht="6" customHeight="1" thickBot="1"/>
     <row r="43" spans="2:30">
-      <c r="B43" s="193" t="s">
+      <c r="B43" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="195">
+      <c r="C43" s="222">
         <v>4</v>
       </c>
-      <c r="D43" s="195">
+      <c r="D43" s="222">
         <f>SUM(E43:K44)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="238"/>
+      <c r="E43" s="273"/>
+      <c r="F43" s="273"/>
+      <c r="G43" s="273"/>
+      <c r="H43" s="273"/>
+      <c r="I43" s="273"/>
+      <c r="J43" s="273"/>
+      <c r="K43" s="259"/>
       <c r="L43" s="6"/>
       <c r="M43" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N43" s="42"/>
-      <c r="O43" s="247"/>
-      <c r="P43" s="260"/>
-      <c r="Q43" s="260"/>
-      <c r="R43" s="260"/>
-      <c r="S43" s="260"/>
-      <c r="T43" s="260"/>
-      <c r="U43" s="260"/>
-      <c r="V43" s="260"/>
-      <c r="W43" s="262"/>
-      <c r="X43" s="258"/>
-      <c r="Y43" s="258"/>
-      <c r="Z43" s="258"/>
-      <c r="AA43" s="258"/>
-      <c r="AB43" s="258"/>
-      <c r="AC43" s="258"/>
-      <c r="AD43" s="252"/>
+      <c r="O43" s="253"/>
+      <c r="P43" s="204"/>
+      <c r="Q43" s="204"/>
+      <c r="R43" s="204"/>
+      <c r="S43" s="204"/>
+      <c r="T43" s="204"/>
+      <c r="U43" s="204"/>
+      <c r="V43" s="204"/>
+      <c r="W43" s="247"/>
+      <c r="X43" s="245"/>
+      <c r="Y43" s="245"/>
+      <c r="Z43" s="245"/>
+      <c r="AA43" s="245"/>
+      <c r="AB43" s="245"/>
+      <c r="AC43" s="245"/>
+      <c r="AD43" s="239"/>
     </row>
     <row r="44" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B44" s="194"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="196"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="188"/>
-      <c r="K44" s="239"/>
+      <c r="B44" s="261"/>
+      <c r="C44" s="255"/>
+      <c r="D44" s="255"/>
+      <c r="E44" s="274"/>
+      <c r="F44" s="274"/>
+      <c r="G44" s="274"/>
+      <c r="H44" s="274"/>
+      <c r="I44" s="274"/>
+      <c r="J44" s="274"/>
+      <c r="K44" s="260"/>
       <c r="L44" s="42"/>
       <c r="M44" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N44" s="42"/>
-      <c r="O44" s="248"/>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="261"/>
-      <c r="R44" s="261"/>
-      <c r="S44" s="261"/>
-      <c r="T44" s="261"/>
-      <c r="U44" s="261"/>
-      <c r="V44" s="261"/>
-      <c r="W44" s="263"/>
-      <c r="X44" s="259"/>
-      <c r="Y44" s="259"/>
-      <c r="Z44" s="259"/>
-      <c r="AA44" s="259"/>
-      <c r="AB44" s="259"/>
-      <c r="AC44" s="259"/>
-      <c r="AD44" s="253"/>
+      <c r="O44" s="254"/>
+      <c r="P44" s="205"/>
+      <c r="Q44" s="205"/>
+      <c r="R44" s="205"/>
+      <c r="S44" s="205"/>
+      <c r="T44" s="205"/>
+      <c r="U44" s="205"/>
+      <c r="V44" s="205"/>
+      <c r="W44" s="248"/>
+      <c r="X44" s="246"/>
+      <c r="Y44" s="246"/>
+      <c r="Z44" s="246"/>
+      <c r="AA44" s="246"/>
+      <c r="AB44" s="246"/>
+      <c r="AC44" s="246"/>
+      <c r="AD44" s="240"/>
     </row>
     <row r="45" spans="2:30" ht="6" customHeight="1" thickBot="1"/>
     <row r="46" spans="2:30">
-      <c r="B46" s="201" t="s">
+      <c r="B46" s="293" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="203">
+      <c r="C46" s="295">
         <v>5</v>
       </c>
-      <c r="D46" s="203">
+      <c r="D46" s="295">
         <f>SUM(E46:K47)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="232"/>
+      <c r="E46" s="269"/>
+      <c r="F46" s="269"/>
+      <c r="G46" s="269"/>
+      <c r="H46" s="269"/>
+      <c r="I46" s="269"/>
+      <c r="J46" s="269"/>
+      <c r="K46" s="265"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="245"/>
+      <c r="M46" s="251"/>
       <c r="N46" s="69"/>
-      <c r="O46" s="243"/>
-      <c r="P46" s="241"/>
-      <c r="Q46" s="241"/>
-      <c r="R46" s="241"/>
-      <c r="S46" s="241"/>
-      <c r="T46" s="241"/>
-      <c r="U46" s="241"/>
-      <c r="V46" s="241"/>
-      <c r="W46" s="254"/>
-      <c r="X46" s="256"/>
-      <c r="Y46" s="256"/>
-      <c r="Z46" s="256"/>
-      <c r="AA46" s="256"/>
-      <c r="AB46" s="256"/>
-      <c r="AC46" s="256"/>
-      <c r="AD46" s="249"/>
+      <c r="O46" s="249"/>
+      <c r="P46" s="224"/>
+      <c r="Q46" s="224"/>
+      <c r="R46" s="224"/>
+      <c r="S46" s="224"/>
+      <c r="T46" s="224"/>
+      <c r="U46" s="224"/>
+      <c r="V46" s="224"/>
+      <c r="W46" s="241"/>
+      <c r="X46" s="243"/>
+      <c r="Y46" s="243"/>
+      <c r="Z46" s="243"/>
+      <c r="AA46" s="243"/>
+      <c r="AB46" s="243"/>
+      <c r="AC46" s="243"/>
+      <c r="AD46" s="237"/>
     </row>
     <row r="47" spans="2:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B47" s="202"/>
-      <c r="C47" s="204"/>
-      <c r="D47" s="204"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184"/>
-      <c r="H47" s="184"/>
-      <c r="I47" s="184"/>
-      <c r="J47" s="184"/>
-      <c r="K47" s="233"/>
+      <c r="B47" s="294"/>
+      <c r="C47" s="296"/>
+      <c r="D47" s="296"/>
+      <c r="E47" s="270"/>
+      <c r="F47" s="270"/>
+      <c r="G47" s="270"/>
+      <c r="H47" s="270"/>
+      <c r="I47" s="270"/>
+      <c r="J47" s="270"/>
+      <c r="K47" s="266"/>
       <c r="L47" s="42"/>
-      <c r="M47" s="246"/>
+      <c r="M47" s="252"/>
       <c r="N47" s="69"/>
-      <c r="O47" s="244"/>
-      <c r="P47" s="242"/>
-      <c r="Q47" s="242"/>
-      <c r="R47" s="242"/>
-      <c r="S47" s="242"/>
-      <c r="T47" s="242"/>
-      <c r="U47" s="242"/>
-      <c r="V47" s="242"/>
-      <c r="W47" s="255"/>
-      <c r="X47" s="257"/>
-      <c r="Y47" s="257"/>
-      <c r="Z47" s="257"/>
-      <c r="AA47" s="257"/>
-      <c r="AB47" s="257"/>
-      <c r="AC47" s="257"/>
-      <c r="AD47" s="250"/>
+      <c r="O47" s="250"/>
+      <c r="P47" s="225"/>
+      <c r="Q47" s="225"/>
+      <c r="R47" s="225"/>
+      <c r="S47" s="225"/>
+      <c r="T47" s="225"/>
+      <c r="U47" s="225"/>
+      <c r="V47" s="225"/>
+      <c r="W47" s="242"/>
+      <c r="X47" s="244"/>
+      <c r="Y47" s="244"/>
+      <c r="Z47" s="244"/>
+      <c r="AA47" s="244"/>
+      <c r="AB47" s="244"/>
+      <c r="AC47" s="244"/>
+      <c r="AD47" s="238"/>
     </row>
     <row r="48" spans="2:30" ht="6" customHeight="1" thickBot="1"/>
     <row r="49" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B49" s="189" t="s">
+      <c r="B49" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="199" t="s">
+      <c r="C49" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="199" t="s">
+      <c r="D49" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="179" t="str">
+      <c r="E49" s="297" t="str">
         <f t="shared" ref="E49:K49" si="1">E22</f>
         <v>CO</v>
       </c>
-      <c r="F49" s="179" t="str">
+      <c r="F49" s="297" t="str">
         <f t="shared" si="1"/>
         <v>PE</v>
       </c>
-      <c r="G49" s="179" t="str">
+      <c r="G49" s="297" t="str">
         <f t="shared" si="1"/>
         <v>EC</v>
       </c>
-      <c r="H49" s="179" t="str">
+      <c r="H49" s="297" t="str">
         <f t="shared" si="1"/>
         <v>HN</v>
       </c>
-      <c r="I49" s="179" t="str">
+      <c r="I49" s="297" t="str">
         <f t="shared" si="1"/>
         <v>SV</v>
       </c>
-      <c r="J49" s="179" t="str">
+      <c r="J49" s="297" t="str">
         <f t="shared" si="1"/>
         <v>PA</v>
       </c>
-      <c r="K49" s="234" t="str">
+      <c r="K49" s="267" t="str">
         <f t="shared" si="1"/>
         <v>AR</v>
       </c>
-      <c r="M49" s="189" t="s">
+      <c r="M49" s="263" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B50" s="190"/>
-      <c r="C50" s="200"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
-      <c r="K50" s="235"/>
-      <c r="M50" s="190"/>
+      <c r="B50" s="264"/>
+      <c r="C50" s="292"/>
+      <c r="D50" s="292"/>
+      <c r="E50" s="298"/>
+      <c r="F50" s="298"/>
+      <c r="G50" s="298"/>
+      <c r="H50" s="298"/>
+      <c r="I50" s="298"/>
+      <c r="J50" s="298"/>
+      <c r="K50" s="268"/>
+      <c r="M50" s="264"/>
     </row>
     <row r="51" spans="2:13" ht="6" customHeight="1"/>
     <row r="52" spans="2:13" ht="20">
@@ -6097,47 +6153,180 @@
     </row>
   </sheetData>
   <mergeCells count="239">
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B2:AD3"/>
+    <mergeCell ref="O22:V22"/>
+    <mergeCell ref="W22:AD22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="W5:AD5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="I5:I6"/>
@@ -6162,180 +6351,47 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="W5:AD5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="X46:X47"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="Z46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="U46:U47"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B2:AD3"/>
-    <mergeCell ref="O22:V22"/>
-    <mergeCell ref="W22:AD22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.17" right="0.17" top="0.19" bottom="0.16" header="0" footer="0"/>
@@ -6354,8 +6410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6364,455 +6420,483 @@
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="26" style="304" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="286" customFormat="1">
-      <c r="A1" s="290"/>
-      <c r="B1" s="290" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="290" t="s">
+    <row r="1" spans="1:8" s="133" customFormat="1">
+      <c r="A1" s="137"/>
+      <c r="B1" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="290" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="290" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="290" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="290" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="290" t="s">
-        <v>80</v>
+      <c r="D1" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="299" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="137" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="291">
+      <c r="A2" s="138">
         <v>1</v>
       </c>
-      <c r="B2" s="292">
+      <c r="B2" s="139">
         <v>1</v>
       </c>
-      <c r="C2" s="291" t="s">
+      <c r="C2" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="291" t="s">
+      <c r="D2" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="291" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="293">
-        <v>0.9</v>
+      <c r="E2" s="300"/>
+      <c r="F2" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="140">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="291">
+      <c r="A3" s="138">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="292">
+      <c r="B3" s="139">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="291" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="291" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="291" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="293"/>
+      <c r="C3" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="300"/>
+      <c r="F3" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="140">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="291">
+      <c r="A4" s="138">
         <f t="shared" ref="A4:A19" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="292">
+      <c r="B4" s="139">
         <v>2</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="291" t="s">
+      <c r="D4" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="291">
+      <c r="A5" s="138">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="292">
+      <c r="B5" s="139">
         <v>2.1</v>
       </c>
-      <c r="C5" s="291" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
+      <c r="C5" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="291">
+      <c r="A6" s="138">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="292">
-        <v>3</v>
-      </c>
-      <c r="C6" s="291" t="s">
+      <c r="B6" s="139">
+        <v>3</v>
+      </c>
+      <c r="C6" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="291" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="291" t="s">
+      <c r="D6" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="300" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="291" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
+      <c r="F6" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="291">
+      <c r="A7" s="138">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="292">
+      <c r="B7" s="139">
         <v>3.1</v>
       </c>
-      <c r="C7" s="291" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291" t="s">
+      <c r="C7" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="300" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="291" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
+      <c r="F7" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="291">
+      <c r="A8" s="138">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="292">
+      <c r="B8" s="139">
         <v>3.2</v>
       </c>
-      <c r="C8" s="291" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="291" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="291"/>
-      <c r="F8" s="291" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="291"/>
-      <c r="H8" s="291"/>
+      <c r="C8" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="300"/>
+      <c r="F8" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="291">
+      <c r="A9" s="138">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="292">
+      <c r="B9" s="139">
         <v>3.3</v>
       </c>
-      <c r="C9" s="291" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="291">
+      <c r="C9" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="138"/>
+      <c r="E9" s="300"/>
+      <c r="F9" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="140">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24">
+      <c r="A10" s="305">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="292">
+      <c r="B10" s="306">
         <v>4</v>
       </c>
-      <c r="C10" s="291" t="s">
+      <c r="C10" s="305" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="291" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="291">
+      <c r="D10" s="305" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="307" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="305" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+    </row>
+    <row r="11" spans="1:8" ht="24">
+      <c r="A11" s="305">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="292">
+      <c r="B11" s="306">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C11" s="291" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="291"/>
-      <c r="E11" s="291"/>
-      <c r="F11" s="291" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="291"/>
-      <c r="H11" s="291"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="291">
+      <c r="C11" s="305" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="305" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="307" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="305" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="305"/>
+      <c r="H11" s="305"/>
+    </row>
+    <row r="12" spans="1:8" ht="24">
+      <c r="A12" s="305">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="292">
+      <c r="B12" s="306">
         <v>4.2</v>
       </c>
-      <c r="C12" s="291" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="291" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="291"/>
-      <c r="H12" s="291"/>
+      <c r="C12" s="305" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="305" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="307" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="305" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="305"/>
+      <c r="H12" s="305"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="291">
+      <c r="A13" s="138">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="292">
+      <c r="B13" s="139">
         <v>5</v>
       </c>
-      <c r="C13" s="291" t="s">
+      <c r="C13" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="291" t="s">
+      <c r="D13" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="300" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="291" t="s">
+      <c r="F13" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="291" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="291"/>
-      <c r="H13" s="291"/>
+      <c r="G13" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="140">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="291">
+      <c r="A14" s="138">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="292">
+      <c r="B14" s="139">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C14" s="291" t="s">
+      <c r="C14" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="291" t="s">
+      <c r="D14" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="300" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="291" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="291" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="291"/>
-      <c r="H14" s="291"/>
+      <c r="F14" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="140">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="291">
+      <c r="A15" s="138">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="292">
+      <c r="B15" s="139">
         <v>5.2</v>
       </c>
-      <c r="C15" s="291" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="291" t="s">
+      <c r="C15" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="300" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="291" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="291" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="291"/>
-      <c r="H15" s="291"/>
+      <c r="F15" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="140">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="294">
+      <c r="A16" s="141">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="295">
+      <c r="B16" s="142">
         <v>6.1</v>
       </c>
-      <c r="C16" s="294" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="294" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="294"/>
-      <c r="F16" s="294" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="294"/>
-      <c r="H16" s="294"/>
+      <c r="C16" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="301"/>
+      <c r="F16" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="294">
+      <c r="A17" s="141">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="295">
+      <c r="B17" s="142">
         <v>6.2</v>
       </c>
-      <c r="C17" s="294" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="294" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="294"/>
-      <c r="F17" s="294" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="294"/>
-      <c r="H17" s="294"/>
+      <c r="C17" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="301"/>
+      <c r="F17" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="296">
+      <c r="A18" s="143">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="297">
+      <c r="B18" s="144">
         <v>7.1</v>
       </c>
-      <c r="C18" s="296" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="296" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="296" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="296" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="296"/>
-      <c r="H18" s="296"/>
+      <c r="C18" s="143" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="302" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="296">
+      <c r="A19" s="143">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="297">
+      <c r="B19" s="144">
         <v>7.2</v>
       </c>
-      <c r="C19" s="296" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="296" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="296" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="296" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="296"/>
-      <c r="H19" s="296"/>
+      <c r="C19" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="302" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="298"/>
+      <c r="B21" s="145"/>
       <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="289" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="289">
+        <v>101</v>
+      </c>
+      <c r="E21" s="303" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="136">
         <f>COUNTIF(F$2:F$20,"GZ")</f>
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="287"/>
+      <c r="B22" s="134"/>
       <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="289" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="289">
+        <v>102</v>
+      </c>
+      <c r="E22" s="303" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="136">
         <f>COUNTIF(F$2:F$20,"AA")</f>
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="288"/>
+      <c r="B23" s="135"/>
       <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="289" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="289">
+        <v>103</v>
+      </c>
+      <c r="E23" s="303" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="136">
         <f>COUNTIF(F$2:F$20,"JS")</f>
         <v>7</v>
       </c>
